--- a/code/LME/parser_beta/data/LME_db.xlsx
+++ b/code/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G249"/>
+  <dimension ref="A1:G251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6173,6 +6173,52 @@
         <v>2985</v>
       </c>
     </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" s="2" t="n">
+        <v>44923</v>
+      </c>
+      <c r="C250" t="n">
+        <v>2343</v>
+      </c>
+      <c r="D250" t="n">
+        <v>8451</v>
+      </c>
+      <c r="E250" t="n">
+        <v>2303</v>
+      </c>
+      <c r="F250" t="n">
+        <v>30505</v>
+      </c>
+      <c r="G250" t="n">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" s="2" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C251" t="n">
+        <v>2371.5</v>
+      </c>
+      <c r="D251" t="n">
+        <v>8395</v>
+      </c>
+      <c r="E251" t="n">
+        <v>2314</v>
+      </c>
+      <c r="F251" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G251" t="n">
+        <v>3019</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/code/LME/parser_beta/data/LME_db.xlsx
+++ b/code/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G251"/>
+  <dimension ref="A1:G252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6219,6 +6219,29 @@
         <v>3019</v>
       </c>
     </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="C252" t="n">
+        <v>2360.5</v>
+      </c>
+      <c r="D252" t="n">
+        <v>8387</v>
+      </c>
+      <c r="E252" t="n">
+        <v>2335</v>
+      </c>
+      <c r="F252" t="n">
+        <v>30425</v>
+      </c>
+      <c r="G252" t="n">
+        <v>3025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/code/LME/parser_beta/data/LME_db.xlsx
+++ b/code/LME/parser_beta/data/LME_db.xlsx
@@ -1,40 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hotdonkey/Documents/GitHub/data_science_learning/code/LME/parser_beta/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A59930-3C67-4C43-A4B4-75FF0D4D8A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LME_non_ferrous" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="LME_non_ferrous" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>aluminium</t>
+  </si>
+  <si>
+    <t>copper</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>nikel</t>
+  </si>
+  <si>
+    <t>zink</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +78,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,5821 +403,5808 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G252"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B252"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>aluminium</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>copper</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>lead</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>nikel</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>zink</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>44565</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>2815.5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>9660</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>2327</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>20730</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>3602</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>44566</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2866</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>9778</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>2343</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>20900</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>3660</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>44567</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2912.5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>9565</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>2291</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>20480</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>3590</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>44568</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>2919.5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>9615</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>2342</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>20725</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>3602.5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>44571</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>2923</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>9665</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>2303</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>21045</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>3576.5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>44572</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>2950</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>9662</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>2305</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>21680</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>3540</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>44573</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>3003</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>9945</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>2344.5</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>22200</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>3582</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>44574</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>2960</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>9972</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>2367</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>22130</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>3575</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>44575</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>2977.5</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>9900</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>2383</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>22850</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>3560</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>44578</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>3009</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>9674.5</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>2358</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>22475</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>3535</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>44579</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>3006</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>9707</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>2357</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>22740</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>3544</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>44580</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>3036</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>9801</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>2352</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>22795</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>3602</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>44581</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>3109.5</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>9925</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>2370</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>23900</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>3674</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>44582</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3079.5</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>9970</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>2393.5</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>24000</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>3686</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>44585</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>3044.5</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>9800</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>2372</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>23500</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>3642</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>44586</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>3064</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>9744</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>2359</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>22535</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>3615</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>44587</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>3093</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>9965</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>2366</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>23425</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>3645</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>44588</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>3107</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>9872</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>2330</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>22860</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>3649</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="2">
         <v>44589</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>3110</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>9678</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>2302</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>22750</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>3644</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="2">
         <v>44592</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>3076</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>9620</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>2289</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>22800</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>3675</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="2">
         <v>44593</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>3072</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>9701</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>2250</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>23300</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>3635</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="2">
         <v>44594</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>3043</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>9880</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>2247</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>23400</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>3650</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="2">
         <v>44595</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>3058.5</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>9785</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>2229</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>23225</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>3618</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="2">
         <v>44596</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>3087</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>9875</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>2225</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>23475</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>3635</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="2">
         <v>44599</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>3148</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>9850</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>2199</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>23650</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>3623</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="2">
         <v>44600</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>3245</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>9760</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>2204</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>23530</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>3653</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="2">
         <v>44601</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>3248</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>9881</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>2234</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>23550</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>3633.5</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="2">
         <v>44602</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>3313</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>10220.5</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>2300</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>24055</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>3738</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="2">
         <v>44603</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>3200</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>10040</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>2289</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>23705</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>3673</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="2">
         <v>44606</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>3306</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>9882</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>2300</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>23650</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>3631</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="2">
         <v>44607</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>3223</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>10020</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>2310</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>23950</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>3613</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="2">
         <v>44608</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>3282</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>10045.5</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>2340</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>23905</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>3634</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="2">
         <v>44609</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>3294</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>10010</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>2351</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>24150</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>3621</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="2">
         <v>44610</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>3314</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>10015</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>2363</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>24500</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>3668.5</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="2">
         <v>44613</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>3315</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>9960</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>2343.5</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>24870</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>3600</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="2">
         <v>44614</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>3420</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>10020</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>2335</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>25650</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>3628</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="2">
         <v>44615</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>3323.5</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>10005</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>2347.5</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>24950</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>3615.5</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="2">
         <v>44616</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>3519</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>9983</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>2370</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>26105</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>3670</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="2" t="n">
+      <c r="B40" s="2">
         <v>44617</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>3355.5</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>9920</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>2359</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>24700</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>3640</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="2">
         <v>44620</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>3450</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>9974</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>2402</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>25240</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>3705</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="2">
         <v>44621</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>3495.5</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>9976</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>2413</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>25450</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>3737</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B43" s="2">
         <v>44622</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>3605</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>10257.5</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>2433.5</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>27000</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>3927</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="2">
         <v>44623</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>3728.5</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>10470</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>2424.5</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>28800</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>3985</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B45" s="2">
         <v>44624</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>3851</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>10466</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>2440</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>29800</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>4024.5</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="2">
         <v>44627</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>3984.5</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>10730</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>2513</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>42995</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>4248</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B47" s="2">
         <v>44628</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>3500.5</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>10171</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>2491</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>48201</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>4091</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B48" s="2">
         <v>44629</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>3532</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>10052</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>2401</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>48211</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>3940</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="2" t="n">
+      <c r="B49" s="2">
         <v>44630</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>3535</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>10144</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>2401</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>48241</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>3961</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="2" t="n">
+      <c r="B50" s="2">
         <v>44631</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>3472</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>10145</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>2361</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>48226</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>3835</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="2" t="n">
+      <c r="B51" s="2">
         <v>44634</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>3399</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>9880</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>2272</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>48211</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>3782</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="2" t="n">
+      <c r="B52" s="2">
         <v>44635</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>3217.5</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>9826</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>2230</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>48196</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>3771</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="2" t="n">
+      <c r="B53" s="2">
         <v>44636</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>3306</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>10100.5</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>2245</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>45795</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>3821</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="2" t="n">
+      <c r="B54" s="2">
         <v>44637</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>3288</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>10166</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>2235</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>42150</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>3805</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="2" t="n">
+      <c r="B55" s="2">
         <v>44638</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>3380.5</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>10249</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>2259</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>37115</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>3850</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="2" t="n">
+      <c r="B56" s="2">
         <v>44641</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>3518</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>10173</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>2248</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>31580</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>3896</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B57" s="2">
         <v>44642</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>3550.5</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>10342</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>2270</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>30800</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>3945</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="2" t="n">
+      <c r="B58" s="2">
         <v>44643</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>3560</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>10311</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>2336.5</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>32355</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>4018</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="2" t="n">
+      <c r="B59" s="2">
         <v>44644</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>3664</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>10421</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>2350</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>37200</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>4140</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="2" t="n">
+      <c r="B60" s="2">
         <v>44645</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>3583</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>10280</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>2346</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>35550</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>4073</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="2" t="n">
+      <c r="B61" s="2">
         <v>44648</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>3606</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>10227</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>2369.5</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>34050</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>4064</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="2" t="n">
+      <c r="B62" s="2">
         <v>44649</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>3583</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>10350</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>2394</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>33100</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>4101</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="2" t="n">
+      <c r="B63" s="2">
         <v>44650</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>3508</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>10390.5</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>2402</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>32750</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>4134.5</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="2" t="n">
+      <c r="B64" s="2">
         <v>44651</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>3503</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>10337</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>2433</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>33400</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>4260</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="2" t="n">
+      <c r="B65" s="2">
         <v>44652</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>3483</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>10247</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>2447</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>32800</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>4332</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="2" t="n">
+      <c r="B66" s="2">
         <v>44655</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>3444</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>10301.5</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>2435</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>33690</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>4471</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="2" t="n">
+      <c r="B67" s="2">
         <v>44656</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>3415</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>10426</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>2419</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>33750</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>4310</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="2" t="n">
+      <c r="B68" s="2">
         <v>44657</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>3443.5</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>10350.5</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>2389</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>33600</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>4306</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="2" t="n">
+      <c r="B69" s="2">
         <v>44658</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>3346</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>10292</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>2405</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>33500</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>4250</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="2" t="n">
+      <c r="B70" s="2">
         <v>44659</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>3395</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>10390</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>2425</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>34100</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>4280</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="2" t="n">
+      <c r="B71" s="2">
         <v>44662</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>3234.5</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>10235.5</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>2409</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>32925</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>4372</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="2" t="n">
+      <c r="B72" s="2">
         <v>44663</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>3214.5</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>10201</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>2418</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>32450</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>4345</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="2" t="n">
+      <c r="B73" s="2">
         <v>44664</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>3207</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>10290.5</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>2450</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>33000</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>4515</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="2" t="n">
+      <c r="B74" s="2">
         <v>44665</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>3237.5</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>10277</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>2471</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>33250</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>4472</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="2" t="n">
+      <c r="B75" s="2">
         <v>44670</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>3312</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>10381</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>2425</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>33700</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>4530</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="2" t="n">
+      <c r="B76" s="2">
         <v>44671</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>3240</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>10215</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>2425</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>33800</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>4510</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="2" t="n">
+      <c r="B77" s="2">
         <v>44672</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>3262</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>10268</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>2414</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>33775</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>4485</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="2" t="n">
+      <c r="B78" s="2">
         <v>44673</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>3244</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>10230.5</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>2400</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>33850</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>4515</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="2" t="n">
+      <c r="B79" s="2">
         <v>44676</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>3090</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>9919</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>2368</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>32650</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>4279.5</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="2" t="n">
+      <c r="B80" s="2">
         <v>44677</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>3102.5</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>9912.5</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>2359</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>32825</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>4315</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="2" t="n">
+      <c r="B81" s="2">
         <v>44678</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>3100</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>9910</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>2320</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>33300</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>4319.5</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="2" t="n">
+      <c r="B82" s="2">
         <v>44679</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>3065.5</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>9812</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>2280</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>33275</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>4230.5</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="2" t="n">
+      <c r="B83" s="2">
         <v>44680</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>3039</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>9820.5</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>2279</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>32430</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>4212</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="2" t="n">
+      <c r="B84" s="2">
         <v>44684</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>2911.5</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>9511</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>2268</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>30910</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>4045</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="2" t="n">
+      <c r="B85" s="2">
         <v>44685</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>2929</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>9474</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>2275</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>30385</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>3955</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="2" t="n">
+      <c r="B86" s="2">
         <v>44686</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>2917</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>9541</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>2305</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>30200</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>3993</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="2" t="n">
+      <c r="B87" s="2">
         <v>44687</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>2832.5</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>9428</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>2231</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>29930</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>3829</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="2" t="n">
+      <c r="B88" s="2">
         <v>44690</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>2708</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>9160</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>2129</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>28400</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>3655</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="2" t="n">
+      <c r="B89" s="2">
         <v>44691</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>2677</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>9350</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>2117</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>27760</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>3642</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="2" t="n">
+      <c r="B90" s="2">
         <v>44692</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>2737</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>9367</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>2107</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>27800</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>3660</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="2" t="n">
+      <c r="B91" s="2">
         <v>44693</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>2688</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>9018.5</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>2073</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>27600</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>3541</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="2" t="n">
+      <c r="B92" s="2">
         <v>44694</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>2723</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>9064</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>2064</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>27425</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>3500</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="2" t="n">
+      <c r="B93" s="2">
         <v>44697</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>2791</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>9270</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>2094</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>26105</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>3583.5</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="2" t="n">
+      <c r="B94" s="2">
         <v>44698</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>2836</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>9396</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>2102</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>26300</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>3687</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="2" t="n">
+      <c r="B95" s="2">
         <v>44699</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>2845</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>9264.5</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>2077</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>26180</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>3646.5</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="2" t="n">
+      <c r="B96" s="2">
         <v>44700</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>2826</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>9287</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>2033</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>26125</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>3647.5</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="2" t="n">
+      <c r="B97" s="2">
         <v>44701</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>2931</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>9477</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>2146</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>27950</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>3755</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="2" t="n">
+      <c r="B98" s="2">
         <v>44704</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>2963</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>9500.5</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>2167</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>26800</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>3777</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="2" t="n">
+      <c r="B99" s="2">
         <v>44705</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>2881</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>9460.5</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>2181.5</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>26280</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>3769</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="2" t="n">
+      <c r="B100" s="2">
         <v>44706</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>2829.5</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>9287</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>2121.5</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>26725</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>3750</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="2" t="n">
+      <c r="B101" s="2">
         <v>44707</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>2825.5</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>9359</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>2106</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>27550</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>3744</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" s="2" t="n">
+      <c r="B102" s="2">
         <v>44708</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>2823</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>9383</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>2091.5</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>27850</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>3815</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" s="2" t="n">
+      <c r="B103" s="2">
         <v>44711</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>2863</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>9520.5</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>2184</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103">
         <v>29975</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103">
         <v>3976</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" s="2" t="n">
+      <c r="B104" s="2">
         <v>44712</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>2816.5</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>9500.5</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>2176</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>28700</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104">
         <v>3978</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" s="2" t="n">
+      <c r="B105" s="2">
         <v>44713</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>2701.5</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>9455</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>2143.5</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>27710</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105">
         <v>3896</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" s="2" t="n">
+      <c r="B106" s="2">
         <v>44718</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>2742</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>9712</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>2181</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106">
         <v>29400</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106">
         <v>3913</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" s="2" t="n">
+      <c r="B107" s="2">
         <v>44719</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>2715</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>9612</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>2169</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107">
         <v>29050</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107">
         <v>3745.5</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" s="2" t="n">
+      <c r="B108" s="2">
         <v>44720</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>2765.5</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>9692</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>2225</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>28860</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108">
         <v>3822</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" s="2" t="n">
+      <c r="B109" s="2">
         <v>44721</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>2752.5</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>9630</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>2198</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109">
         <v>28055</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G109">
         <v>3792</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" s="2" t="n">
+      <c r="B110" s="2">
         <v>44722</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>2695</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>9537</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>2151</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110">
         <v>27570</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G110">
         <v>3755</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" s="2" t="n">
+      <c r="B111" s="2">
         <v>44725</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>2589.5</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>9290</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>2102</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111">
         <v>26390</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111">
         <v>3607</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" s="2" t="n">
+      <c r="B112" s="2">
         <v>44726</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>2588</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>9263</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>2075</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112">
         <v>25500</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G112">
         <v>3661</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" s="2" t="n">
+      <c r="B113" s="2">
         <v>44727</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>2580</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>9257</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>2082</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113">
         <v>25650</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G113">
         <v>3701</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" s="2" t="n">
+      <c r="B114" s="2">
         <v>44728</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>2500.5</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>9105</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>2067</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114">
         <v>25425</v>
       </c>
-      <c r="G114" t="n">
+      <c r="G114">
         <v>3636</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" s="2" t="n">
+      <c r="B115" s="2">
         <v>44729</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>2474</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>9101</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>2073</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115">
         <v>25435</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G115">
         <v>3580</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" s="2" t="n">
+      <c r="B116" s="2">
         <v>44732</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>2462</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>8875</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>2046</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F116">
         <v>25230</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G116">
         <v>3572</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" s="2" t="n">
+      <c r="B117" s="2">
         <v>44733</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>2519.5</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>9000</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>2080.5</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117">
         <v>25540</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G117">
         <v>3721</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" s="2" t="n">
+      <c r="B118" s="2">
         <v>44734</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>2455.5</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>8729</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>2040</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118">
         <v>24975</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G118">
         <v>3699.5</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" s="2" t="n">
+      <c r="B119" s="2">
         <v>44735</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>2480</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>8578</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>1985</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119">
         <v>24110</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G119">
         <v>3677</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" s="2" t="n">
+      <c r="B120" s="2">
         <v>44736</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>2436</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>8280.5</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>1896</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120">
         <v>22900</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G120">
         <v>3540</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" s="2" t="n">
+      <c r="B121" s="2">
         <v>44739</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>2453</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>8353</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>1982</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121">
         <v>23200</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121">
         <v>3450</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" s="2" t="n">
+      <c r="B122" s="2">
         <v>44740</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>2500</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>8502</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122">
         <v>1989.5</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F122">
         <v>23900</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G122">
         <v>3449.5</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" s="2" t="n">
+      <c r="B123" s="2">
         <v>44741</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>2452</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>8446</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123">
         <v>1955</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F123">
         <v>24750</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G123">
         <v>3410</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" s="2" t="n">
+      <c r="B124" s="2">
         <v>44742</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>2397</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>8245</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124">
         <v>1907</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F124">
         <v>23100</v>
       </c>
-      <c r="G124" t="n">
+      <c r="G124">
         <v>3251.5</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" s="2" t="n">
+      <c r="B125" s="2">
         <v>44743</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>2384</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>7975.5</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125">
         <v>1919</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125">
         <v>21650</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G125">
         <v>3125</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" s="2" t="n">
+      <c r="B126" s="2">
         <v>44746</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>2431.5</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>8036</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126">
         <v>1947</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F126">
         <v>22685</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G126">
         <v>3170</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" s="2" t="n">
+      <c r="B127" s="2">
         <v>44747</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>2374</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>7807</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127">
         <v>1932.5</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127">
         <v>21925</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G127">
         <v>3041</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" s="2" t="n">
+      <c r="B128" s="2">
         <v>44748</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>2358</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>7525.5</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128">
         <v>1981.5</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F128">
         <v>22225</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G128">
         <v>3060</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" s="2" t="n">
+      <c r="B129" s="2">
         <v>44749</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>2417.5</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>7835</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E129">
         <v>2015</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F129">
         <v>22025</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G129">
         <v>3162</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" s="2" t="n">
+      <c r="B130" s="2">
         <v>44750</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>2399.5</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>7790</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130">
         <v>1948</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F130">
         <v>21255</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G130">
         <v>3151</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" s="2" t="n">
+      <c r="B131" s="2">
         <v>44753</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>2417</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>7623</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131">
         <v>1940</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F131">
         <v>21500</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G131">
         <v>3122</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" s="2" t="n">
+      <c r="B132" s="2">
         <v>44754</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>2358</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>7370.5</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132">
         <v>1945</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F132">
         <v>21450</v>
       </c>
-      <c r="G132" t="n">
+      <c r="G132">
         <v>3137</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" s="2" t="n">
+      <c r="B133" s="2">
         <v>44755</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>2343</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>7267</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133">
         <v>1981</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F133">
         <v>21700</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G133">
         <v>3060.5</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" s="2" t="n">
+      <c r="B134" s="2">
         <v>44756</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>2329</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>7216</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E134">
         <v>1891</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F134">
         <v>20335</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G134">
         <v>2972</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" s="2" t="n">
+      <c r="B135" s="2">
         <v>44757</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>2320.5</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>7000</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135">
         <v>1925</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F135">
         <v>19100</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G135">
         <v>2921</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" s="2" t="n">
+      <c r="B136" s="2">
         <v>44760</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>2377.5</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>7320</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136">
         <v>1994</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F136">
         <v>20200</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G136">
         <v>3032</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" s="2" t="n">
+      <c r="B137" s="2">
         <v>44761</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>2412</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>7281.5</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E137">
         <v>1972</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F137">
         <v>21350</v>
       </c>
-      <c r="G137" t="n">
+      <c r="G137">
         <v>3045</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" s="2" t="n">
+      <c r="B138" s="2">
         <v>44762</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>2456.5</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>7371</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E138">
         <v>2032</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F138">
         <v>21300</v>
       </c>
-      <c r="G138" t="n">
+      <c r="G138">
         <v>3090</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" s="2" t="n">
+      <c r="B139" s="2">
         <v>44763</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>2426</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>7231.5</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E139">
         <v>1996</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F139">
         <v>21200</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G139">
         <v>3005</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" s="2" t="n">
+      <c r="B140" s="2">
         <v>44764</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>2460</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>7372</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E140">
         <v>2005</v>
       </c>
-      <c r="F140" t="n">
+      <c r="F140">
         <v>21530</v>
       </c>
-      <c r="G140" t="n">
+      <c r="G140">
         <v>3045</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" s="2" t="n">
+      <c r="B141" s="2">
         <v>44767</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>2431.5</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>7448</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E141">
         <v>2021</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F141">
         <v>22550</v>
       </c>
-      <c r="G141" t="n">
+      <c r="G141">
         <v>3050</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" s="2" t="n">
+      <c r="B142" s="2">
         <v>44768</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>2437</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>7591.5</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E142">
         <v>2004</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F142">
         <v>22320</v>
       </c>
-      <c r="G142" t="n">
+      <c r="G142">
         <v>3140</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" s="2" t="n">
+      <c r="B143" s="2">
         <v>44769</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>2390.5</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>7552</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E143">
         <v>2016.5</v>
       </c>
-      <c r="F143" t="n">
+      <c r="F143">
         <v>21300</v>
       </c>
-      <c r="G143" t="n">
+      <c r="G143">
         <v>3116</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" s="2" t="n">
+      <c r="B144" s="2">
         <v>44770</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>2458</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>7712</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E144">
         <v>2013</v>
       </c>
-      <c r="F144" t="n">
+      <c r="F144">
         <v>21500</v>
       </c>
-      <c r="G144" t="n">
+      <c r="G144">
         <v>3246</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" s="2" t="n">
+      <c r="B145" s="2">
         <v>44771</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>2452</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>7800.5</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E145">
         <v>2023</v>
       </c>
-      <c r="F145" t="n">
+      <c r="F145">
         <v>22050</v>
       </c>
-      <c r="G145" t="n">
+      <c r="G145">
         <v>3351</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" s="2" t="n">
+      <c r="B146" s="2">
         <v>44774</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>2469.5</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>7930.5</v>
       </c>
-      <c r="E146" t="n">
+      <c r="E146">
         <v>2057</v>
       </c>
-      <c r="F146" t="n">
+      <c r="F146">
         <v>24025</v>
       </c>
-      <c r="G146" t="n">
+      <c r="G146">
         <v>3405.5</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" s="2" t="n">
+      <c r="B147" s="2">
         <v>44775</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>2448.5</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>7819</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E147">
         <v>2042</v>
       </c>
-      <c r="F147" t="n">
+      <c r="F147">
         <v>22825</v>
       </c>
-      <c r="G147" t="n">
+      <c r="G147">
         <v>3445</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" s="2" t="n">
+      <c r="B148" s="2">
         <v>44776</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>2403</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>7774</v>
       </c>
-      <c r="E148" t="n">
+      <c r="E148">
         <v>2021</v>
       </c>
-      <c r="F148" t="n">
+      <c r="F148">
         <v>22000</v>
       </c>
-      <c r="G148" t="n">
+      <c r="G148">
         <v>3355</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" s="2" t="n">
+      <c r="B149" s="2">
         <v>44777</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>2374</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>7642</v>
       </c>
-      <c r="E149" t="n">
+      <c r="E149">
         <v>2019.5</v>
       </c>
-      <c r="F149" t="n">
+      <c r="F149">
         <v>22035</v>
       </c>
-      <c r="G149" t="n">
+      <c r="G149">
         <v>3431</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" s="2" t="n">
+      <c r="B150" s="2">
         <v>44778</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>2447.5</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>7830.5</v>
       </c>
-      <c r="E150" t="n">
+      <c r="E150">
         <v>2092</v>
       </c>
-      <c r="F150" t="n">
+      <c r="F150">
         <v>22170</v>
       </c>
-      <c r="G150" t="n">
+      <c r="G150">
         <v>3550</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" s="2" t="n">
+      <c r="B151" s="2">
         <v>44781</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>2435.5</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>7835</v>
       </c>
-      <c r="E151" t="n">
+      <c r="E151">
         <v>2140.5</v>
       </c>
-      <c r="F151" t="n">
+      <c r="F151">
         <v>21725</v>
       </c>
-      <c r="G151" t="n">
+      <c r="G151">
         <v>3507</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" s="2" t="n">
+      <c r="B152" s="2">
         <v>44782</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>2488</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>7971.5</v>
       </c>
-      <c r="E152" t="n">
+      <c r="E152">
         <v>2183</v>
       </c>
-      <c r="F152" t="n">
+      <c r="F152">
         <v>21355</v>
       </c>
-      <c r="G152" t="n">
+      <c r="G152">
         <v>3577</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" s="2" t="n">
+      <c r="B153" s="2">
         <v>44783</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>2462.5</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>7976</v>
       </c>
-      <c r="E153" t="n">
+      <c r="E153">
         <v>2175</v>
       </c>
-      <c r="F153" t="n">
+      <c r="F153">
         <v>21330</v>
       </c>
-      <c r="G153" t="n">
+      <c r="G153">
         <v>3632</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" s="2" t="n">
+      <c r="B154" s="2">
         <v>44784</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>2498</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>8140</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E154">
         <v>2185.5</v>
       </c>
-      <c r="F154" t="n">
+      <c r="F154">
         <v>23110</v>
       </c>
-      <c r="G154" t="n">
+      <c r="G154">
         <v>3727</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" s="2" t="n">
+      <c r="B155" s="2">
         <v>44785</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>2468.5</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>8065</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E155">
         <v>2176</v>
       </c>
-      <c r="F155" t="n">
+      <c r="F155">
         <v>23225</v>
       </c>
-      <c r="G155" t="n">
+      <c r="G155">
         <v>3672</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" s="2" t="n">
+      <c r="B156" s="2">
         <v>44788</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>2389.5</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>7865.5</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E156">
         <v>2175</v>
       </c>
-      <c r="F156" t="n">
+      <c r="F156">
         <v>21850</v>
       </c>
-      <c r="G156" t="n">
+      <c r="G156">
         <v>3621</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" s="2" t="n">
+      <c r="B157" s="2">
         <v>44789</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>2442</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>7992</v>
       </c>
-      <c r="E157" t="n">
+      <c r="E157">
         <v>2192</v>
       </c>
-      <c r="F157" t="n">
+      <c r="F157">
         <v>22500</v>
       </c>
-      <c r="G157" t="n">
+      <c r="G157">
         <v>3877</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" s="2" t="n">
+      <c r="B158" s="2">
         <v>44790</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>2414</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>7955</v>
       </c>
-      <c r="E158" t="n">
+      <c r="E158">
         <v>2141</v>
       </c>
-      <c r="F158" t="n">
+      <c r="F158">
         <v>22035</v>
       </c>
-      <c r="G158" t="n">
+      <c r="G158">
         <v>3635.5</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" s="2" t="n">
+      <c r="B159" s="2">
         <v>44791</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>2412</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>8020</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E159">
         <v>2126</v>
       </c>
-      <c r="F159" t="n">
+      <c r="F159">
         <v>21850</v>
       </c>
-      <c r="G159" t="n">
+      <c r="G159">
         <v>3574</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" s="2" t="n">
+      <c r="B160" s="2">
         <v>44792</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>2376</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>8051</v>
       </c>
-      <c r="E160" t="n">
+      <c r="E160">
         <v>2070</v>
       </c>
-      <c r="F160" t="n">
+      <c r="F160">
         <v>21575</v>
       </c>
-      <c r="G160" t="n">
+      <c r="G160">
         <v>3532</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" s="2" t="n">
+      <c r="B161" s="2">
         <v>44795</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>2387.5</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>8041</v>
       </c>
-      <c r="E161" t="n">
+      <c r="E161">
         <v>2032</v>
       </c>
-      <c r="F161" t="n">
+      <c r="F161">
         <v>21810</v>
       </c>
-      <c r="G161" t="n">
+      <c r="G161">
         <v>3550</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" s="2" t="n">
+      <c r="B162" s="2">
         <v>44796</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>2438.5</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>8100.5</v>
       </c>
-      <c r="E162" t="n">
+      <c r="E162">
         <v>2005</v>
       </c>
-      <c r="F162" t="n">
+      <c r="F162">
         <v>21780</v>
       </c>
-      <c r="G162" t="n">
+      <c r="G162">
         <v>3520</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" s="2" t="n">
+      <c r="B163" s="2">
         <v>44797</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>2422</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>8031.5</v>
       </c>
-      <c r="E163" t="n">
+      <c r="E163">
         <v>1958</v>
       </c>
-      <c r="F163" t="n">
+      <c r="F163">
         <v>21350</v>
       </c>
-      <c r="G163" t="n">
+      <c r="G163">
         <v>3561</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" s="2" t="n">
+      <c r="B164" s="2">
         <v>44798</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>2442.5</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>8155</v>
       </c>
-      <c r="E164" t="n">
+      <c r="E164">
         <v>1997</v>
       </c>
-      <c r="F164" t="n">
+      <c r="F164">
         <v>21250</v>
       </c>
-      <c r="G164" t="n">
+      <c r="G164">
         <v>3622</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" s="2" t="n">
+      <c r="B165" s="2">
         <v>44799</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>2495</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>8315</v>
       </c>
-      <c r="E165" t="n">
+      <c r="E165">
         <v>1997.5</v>
       </c>
-      <c r="F165" t="n">
+      <c r="F165">
         <v>21510</v>
       </c>
-      <c r="G165" t="n">
+      <c r="G165">
         <v>3678</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" s="2" t="n">
+      <c r="B166" s="2">
         <v>44803</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>2406.5</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>7910.5</v>
       </c>
-      <c r="E166" t="n">
+      <c r="E166">
         <v>1979</v>
       </c>
-      <c r="F166" t="n">
+      <c r="F166">
         <v>21385</v>
       </c>
-      <c r="G166" t="n">
+      <c r="G166">
         <v>3592</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" s="2" t="n">
+      <c r="B167" s="2">
         <v>44804</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>2368.5</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>7721</v>
       </c>
-      <c r="E167" t="n">
+      <c r="E167">
         <v>1950</v>
       </c>
-      <c r="F167" t="n">
+      <c r="F167">
         <v>21255</v>
       </c>
-      <c r="G167" t="n">
+      <c r="G167">
         <v>3540</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" s="2" t="n">
+      <c r="B168" s="2">
         <v>44805</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>2306</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>7702</v>
       </c>
-      <c r="E168" t="n">
+      <c r="E168">
         <v>1915</v>
       </c>
-      <c r="F168" t="n">
+      <c r="F168">
         <v>20525</v>
       </c>
-      <c r="G168" t="n">
+      <c r="G168">
         <v>3300</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" s="2" t="n">
+      <c r="B169" s="2">
         <v>44806</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>2309</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>7587</v>
       </c>
-      <c r="E169" t="n">
+      <c r="E169">
         <v>1890</v>
       </c>
-      <c r="F169" t="n">
+      <c r="F169">
         <v>20200</v>
       </c>
-      <c r="G169" t="n">
+      <c r="G169">
         <v>3144.5</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" s="2" t="n">
+      <c r="B170" s="2">
         <v>44809</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>2290.5</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>7652.5</v>
       </c>
-      <c r="E170" t="n">
+      <c r="E170">
         <v>1882</v>
       </c>
-      <c r="F170" t="n">
+      <c r="F170">
         <v>21000</v>
       </c>
-      <c r="G170" t="n">
+      <c r="G170">
         <v>3265</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" s="2" t="n">
+      <c r="B171" s="2">
         <v>44810</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>2260</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>7707</v>
       </c>
-      <c r="E171" t="n">
+      <c r="E171">
         <v>1895</v>
       </c>
-      <c r="F171" t="n">
+      <c r="F171">
         <v>21355</v>
       </c>
-      <c r="G171" t="n">
+      <c r="G171">
         <v>3217</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" s="2" t="n">
+      <c r="B172" s="2">
         <v>44811</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>2230.5</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>7730</v>
       </c>
-      <c r="E172" t="n">
+      <c r="E172">
         <v>1895</v>
       </c>
-      <c r="F172" t="n">
+      <c r="F172">
         <v>21450</v>
       </c>
-      <c r="G172" t="n">
+      <c r="G172">
         <v>3171</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" s="2" t="n">
+      <c r="B173" s="2">
         <v>44812</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>2256</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>7906</v>
       </c>
-      <c r="E173" t="n">
+      <c r="E173">
         <v>1888</v>
       </c>
-      <c r="F173" t="n">
+      <c r="F173">
         <v>21400</v>
       </c>
-      <c r="G173" t="n">
+      <c r="G173">
         <v>3192</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" s="2" t="n">
+      <c r="B174" s="2">
         <v>44813</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>2280</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>7985</v>
       </c>
-      <c r="E174" t="n">
+      <c r="E174">
         <v>1918</v>
       </c>
-      <c r="F174" t="n">
+      <c r="F174">
         <v>22200</v>
       </c>
-      <c r="G174" t="n">
+      <c r="G174">
         <v>3222.5</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" s="2" t="n">
+      <c r="B175" s="2">
         <v>44816</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>2288.5</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>8026</v>
       </c>
-      <c r="E175" t="n">
+      <c r="E175">
         <v>1929</v>
       </c>
-      <c r="F175" t="n">
+      <c r="F175">
         <v>23325</v>
       </c>
-      <c r="G175" t="n">
+      <c r="G175">
         <v>3248</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" s="2" t="n">
+      <c r="B176" s="2">
         <v>44817</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>2309.5</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>8230</v>
       </c>
-      <c r="E176" t="n">
+      <c r="E176">
         <v>1956</v>
       </c>
-      <c r="F176" t="n">
+      <c r="F176">
         <v>24655</v>
       </c>
-      <c r="G176" t="n">
+      <c r="G176">
         <v>3319.5</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" s="2" t="n">
+      <c r="B177" s="2">
         <v>44818</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>2227.5</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>7865</v>
       </c>
-      <c r="E177" t="n">
+      <c r="E177">
         <v>1930</v>
       </c>
-      <c r="F177" t="n">
+      <c r="F177">
         <v>23755</v>
       </c>
-      <c r="G177" t="n">
+      <c r="G177">
         <v>3215</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" s="2" t="n">
+      <c r="B178" s="2">
         <v>44819</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>2272</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>7806</v>
       </c>
-      <c r="E178" t="n">
+      <c r="E178">
         <v>1936</v>
       </c>
-      <c r="F178" t="n">
+      <c r="F178">
         <v>23310</v>
       </c>
-      <c r="G178" t="n">
+      <c r="G178">
         <v>3225</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" s="2" t="n">
+      <c r="B179" s="2">
         <v>44820</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>2259</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>7792</v>
       </c>
-      <c r="E179" t="n">
+      <c r="E179">
         <v>1882</v>
       </c>
-      <c r="F179" t="n">
+      <c r="F179">
         <v>23500</v>
       </c>
-      <c r="G179" t="n">
+      <c r="G179">
         <v>3124</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" s="2" t="n">
+      <c r="B180" s="2">
         <v>44823</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>2232</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>7772</v>
       </c>
-      <c r="E180" t="n">
+      <c r="E180">
         <v>1882</v>
       </c>
-      <c r="F180" t="n">
+      <c r="F180">
         <v>24610</v>
       </c>
-      <c r="G180" t="n">
+      <c r="G180">
         <v>3145</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" s="2" t="n">
+      <c r="B181" s="2">
         <v>44824</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>2245.5</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>7796</v>
       </c>
-      <c r="E181" t="n">
+      <c r="E181">
         <v>1874</v>
       </c>
-      <c r="F181" t="n">
+      <c r="F181">
         <v>24750</v>
       </c>
-      <c r="G181" t="n">
+      <c r="G181">
         <v>3201.5</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" s="2" t="n">
+      <c r="B182" s="2">
         <v>44825</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>2191</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>7761.5</v>
       </c>
-      <c r="E182" t="n">
+      <c r="E182">
         <v>1847</v>
       </c>
-      <c r="F182" t="n">
+      <c r="F182">
         <v>24860</v>
       </c>
-      <c r="G182" t="n">
+      <c r="G182">
         <v>3132</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" s="2" t="n">
+      <c r="B183" s="2">
         <v>44826</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>2195.5</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>7815</v>
       </c>
-      <c r="E183" t="n">
+      <c r="E183">
         <v>1877</v>
       </c>
-      <c r="F183" t="n">
+      <c r="F183">
         <v>24525</v>
       </c>
-      <c r="G183" t="n">
+      <c r="G183">
         <v>3131.5</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" s="2" t="n">
+      <c r="B184" s="2">
         <v>44827</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>2153</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>7446</v>
       </c>
-      <c r="E184" t="n">
+      <c r="E184">
         <v>1802</v>
       </c>
-      <c r="F184" t="n">
+      <c r="F184">
         <v>23135</v>
       </c>
-      <c r="G184" t="n">
+      <c r="G184">
         <v>3035</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" s="2" t="n">
+      <c r="B185" s="2">
         <v>44830</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>2125.5</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>7449</v>
       </c>
-      <c r="E185" t="n">
+      <c r="E185">
         <v>1776</v>
       </c>
-      <c r="F185" t="n">
+      <c r="F185">
         <v>22150</v>
       </c>
-      <c r="G185" t="n">
+      <c r="G185">
         <v>2944</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" s="2" t="n">
+      <c r="B186" s="2">
         <v>44831</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>2106</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>7475</v>
       </c>
-      <c r="E186" t="n">
+      <c r="E186">
         <v>1754</v>
       </c>
-      <c r="F186" t="n">
+      <c r="F186">
         <v>21890</v>
       </c>
-      <c r="G186" t="n">
+      <c r="G186">
         <v>2938</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" s="2" t="n">
+      <c r="B187" s="2">
         <v>44832</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>2080</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>7353</v>
       </c>
-      <c r="E187" t="n">
+      <c r="E187">
         <v>1765</v>
       </c>
-      <c r="F187" t="n">
+      <c r="F187">
         <v>21225</v>
       </c>
-      <c r="G187" t="n">
+      <c r="G187">
         <v>2830</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" s="2" t="n">
+      <c r="B188" s="2">
         <v>44833</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>2261</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>7660.5</v>
       </c>
-      <c r="E188" t="n">
+      <c r="E188">
         <v>1856</v>
       </c>
-      <c r="F188" t="n">
+      <c r="F188">
         <v>22900</v>
       </c>
-      <c r="G188" t="n">
+      <c r="G188">
         <v>3015</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" s="2" t="n">
+      <c r="B189" s="2">
         <v>44834</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>2180</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>7647</v>
       </c>
-      <c r="E189" t="n">
+      <c r="E189">
         <v>1889</v>
       </c>
-      <c r="F189" t="n">
+      <c r="F189">
         <v>22290</v>
       </c>
-      <c r="G189" t="n">
+      <c r="G189">
         <v>2986</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" s="2" t="n">
+      <c r="B190" s="2">
         <v>44837</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>2164</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>7524</v>
       </c>
-      <c r="E190" t="n">
+      <c r="E190">
         <v>1865.5</v>
       </c>
-      <c r="F190" t="n">
+      <c r="F190">
         <v>21575</v>
       </c>
-      <c r="G190" t="n">
+      <c r="G190">
         <v>2956</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" s="2" t="n">
+      <c r="B191" s="2">
         <v>44838</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>2261.5</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>7596</v>
       </c>
-      <c r="E191" t="n">
+      <c r="E191">
         <v>1877</v>
       </c>
-      <c r="F191" t="n">
+      <c r="F191">
         <v>21300</v>
       </c>
-      <c r="G191" t="n">
+      <c r="G191">
         <v>2989</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" s="2" t="n">
+      <c r="B192" s="2">
         <v>44839</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>2289</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>7661</v>
       </c>
-      <c r="E192" t="n">
+      <c r="E192">
         <v>1965.5</v>
       </c>
-      <c r="F192" t="n">
+      <c r="F192">
         <v>22275</v>
       </c>
-      <c r="G192" t="n">
+      <c r="G192">
         <v>3028</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" s="2" t="n">
+      <c r="B193" s="2">
         <v>44840</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>2355</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>7744</v>
       </c>
-      <c r="E193" t="n">
+      <c r="E193">
         <v>2049</v>
       </c>
-      <c r="F193" t="n">
+      <c r="F193">
         <v>22350</v>
       </c>
-      <c r="G193" t="n">
+      <c r="G193">
         <v>3096</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" s="2" t="n">
+      <c r="B194" s="2">
         <v>44841</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>2342</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>7575.5</v>
       </c>
-      <c r="E194" t="n">
+      <c r="E194">
         <v>2078</v>
       </c>
-      <c r="F194" t="n">
+      <c r="F194">
         <v>22360</v>
       </c>
-      <c r="G194" t="n">
+      <c r="G194">
         <v>3061.5</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" s="2" t="n">
+      <c r="B195" s="2">
         <v>44844</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>2274</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>7655</v>
       </c>
-      <c r="E195" t="n">
+      <c r="E195">
         <v>2096</v>
       </c>
-      <c r="F195" t="n">
+      <c r="F195">
         <v>22100</v>
       </c>
-      <c r="G195" t="n">
+      <c r="G195">
         <v>3011</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" s="2" t="n">
+      <c r="B196" s="2">
         <v>44845</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>2218.5</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>7587</v>
       </c>
-      <c r="E196" t="n">
+      <c r="E196">
         <v>2030</v>
       </c>
-      <c r="F196" t="n">
+      <c r="F196">
         <v>22400</v>
       </c>
-      <c r="G196" t="n">
+      <c r="G196">
         <v>2966</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" s="2" t="n">
+      <c r="B197" s="2">
         <v>44846</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>2227</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>7625.5</v>
       </c>
-      <c r="E197" t="n">
+      <c r="E197">
         <v>2080</v>
       </c>
-      <c r="F197" t="n">
+      <c r="F197">
         <v>21750</v>
       </c>
-      <c r="G197" t="n">
+      <c r="G197">
         <v>2972</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" s="2" t="n">
+      <c r="B198" s="2">
         <v>44847</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>2374</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>7663</v>
       </c>
-      <c r="E198" t="n">
+      <c r="E198">
         <v>2079</v>
       </c>
-      <c r="F198" t="n">
+      <c r="F198">
         <v>21920</v>
       </c>
-      <c r="G198" t="n">
+      <c r="G198">
         <v>2955.5</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" s="2" t="n">
+      <c r="B199" s="2">
         <v>44848</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>2309</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>7688</v>
       </c>
-      <c r="E199" t="n">
+      <c r="E199">
         <v>2060</v>
       </c>
-      <c r="F199" t="n">
+      <c r="F199">
         <v>21910</v>
       </c>
-      <c r="G199" t="n">
+      <c r="G199">
         <v>2960.5</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" s="2" t="n">
+      <c r="B200" s="2">
         <v>44851</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>2240</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>7715</v>
       </c>
-      <c r="E200" t="n">
+      <c r="E200">
         <v>2077</v>
       </c>
-      <c r="F200" t="n">
+      <c r="F200">
         <v>21460</v>
       </c>
-      <c r="G200" t="n">
+      <c r="G200">
         <v>2905</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" s="2" t="n">
+      <c r="B201" s="2">
         <v>44852</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>2200.5</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>7536</v>
       </c>
-      <c r="E201" t="n">
+      <c r="E201">
         <v>2044</v>
       </c>
-      <c r="F201" t="n">
+      <c r="F201">
         <v>21500</v>
       </c>
-      <c r="G201" t="n">
+      <c r="G201">
         <v>2868</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" s="2" t="n">
+      <c r="B202" s="2">
         <v>44853</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>2169</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>7420</v>
       </c>
-      <c r="E202" t="n">
+      <c r="E202">
         <v>2007</v>
       </c>
-      <c r="F202" t="n">
+      <c r="F202">
         <v>21620</v>
       </c>
-      <c r="G202" t="n">
+      <c r="G202">
         <v>2890</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" s="2" t="n">
+      <c r="B203" s="2">
         <v>44854</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>2214</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>7585.5</v>
       </c>
-      <c r="E203" t="n">
+      <c r="E203">
         <v>1989</v>
       </c>
-      <c r="F203" t="n">
+      <c r="F203">
         <v>21825</v>
       </c>
-      <c r="G203" t="n">
+      <c r="G203">
         <v>2944</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" s="2" t="n">
+      <c r="B204" s="2">
         <v>44855</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>2155.5</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>7545</v>
       </c>
-      <c r="E204" t="n">
+      <c r="E204">
         <v>1930</v>
       </c>
-      <c r="F204" t="n">
+      <c r="F204">
         <v>21550</v>
       </c>
-      <c r="G204" t="n">
+      <c r="G204">
         <v>2990.5</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" s="2" t="n">
+      <c r="B205" s="2">
         <v>44858</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>2160</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>7661</v>
       </c>
-      <c r="E205" t="n">
+      <c r="E205">
         <v>1937</v>
       </c>
-      <c r="F205" t="n">
+      <c r="F205">
         <v>22170</v>
       </c>
-      <c r="G205" t="n">
+      <c r="G205">
         <v>3011</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" s="2" t="n">
+      <c r="B206" s="2">
         <v>44859</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>2170.5</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>7536</v>
       </c>
-      <c r="E206" t="n">
+      <c r="E206">
         <v>1893</v>
       </c>
-      <c r="F206" t="n">
+      <c r="F206">
         <v>22075</v>
       </c>
-      <c r="G206" t="n">
+      <c r="G206">
         <v>2920</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" s="2" t="n">
+      <c r="B207" s="2">
         <v>44860</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>2265.5</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>7762.5</v>
       </c>
-      <c r="E207" t="n">
+      <c r="E207">
         <v>1900</v>
       </c>
-      <c r="F207" t="n">
+      <c r="F207">
         <v>22255</v>
       </c>
-      <c r="G207" t="n">
+      <c r="G207">
         <v>2977</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" s="2" t="n">
+      <c r="B208" s="2">
         <v>44861</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>2297</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>7777</v>
       </c>
-      <c r="E208" t="n">
+      <c r="E208">
         <v>1885</v>
       </c>
-      <c r="F208" t="n">
+      <c r="F208">
         <v>22250</v>
       </c>
-      <c r="G208" t="n">
+      <c r="G208">
         <v>2985</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" s="2" t="n">
+      <c r="B209" s="2">
         <v>44862</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>2226</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>7663.5</v>
       </c>
-      <c r="E209" t="n">
+      <c r="E209">
         <v>1942</v>
       </c>
-      <c r="F209" t="n">
+      <c r="F209">
         <v>22255</v>
       </c>
-      <c r="G209" t="n">
+      <c r="G209">
         <v>2914</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" s="2" t="n">
+      <c r="B210" s="2">
         <v>44865</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>2197</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>7525</v>
       </c>
-      <c r="E210" t="n">
+      <c r="E210">
         <v>1966</v>
       </c>
-      <c r="F210" t="n">
+      <c r="F210">
         <v>21750</v>
       </c>
-      <c r="G210" t="n">
+      <c r="G210">
         <v>2755</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" s="2" t="n">
+      <c r="B211" s="2">
         <v>44866</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>2245.5</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>7745</v>
       </c>
-      <c r="E211" t="n">
+      <c r="E211">
         <v>2009</v>
       </c>
-      <c r="F211" t="n">
+      <c r="F211">
         <v>22705</v>
       </c>
-      <c r="G211" t="n">
+      <c r="G211">
         <v>2787</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" s="2" t="n">
+      <c r="B212" s="2">
         <v>44867</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>2227</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>7705</v>
       </c>
-      <c r="E212" t="n">
+      <c r="E212">
         <v>1978</v>
       </c>
-      <c r="F212" t="n">
+      <c r="F212">
         <v>23360</v>
       </c>
-      <c r="G212" t="n">
+      <c r="G212">
         <v>2765</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" s="2" t="n">
+      <c r="B213" s="2">
         <v>44868</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>2216</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>7510</v>
       </c>
-      <c r="E213" t="n">
+      <c r="E213">
         <v>1986</v>
       </c>
-      <c r="F213" t="n">
+      <c r="F213">
         <v>23060</v>
       </c>
-      <c r="G213" t="n">
+      <c r="G213">
         <v>2682</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" s="2" t="n">
+      <c r="B214" s="2">
         <v>44869</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>2306</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>7905</v>
       </c>
-      <c r="E214" t="n">
+      <c r="E214">
         <v>2022</v>
       </c>
-      <c r="F214" t="n">
+      <c r="F214">
         <v>23735</v>
       </c>
-      <c r="G214" t="n">
+      <c r="G214">
         <v>2849</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" s="2" t="n">
+      <c r="B215" s="2">
         <v>44872</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>2292</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>7954.5</v>
       </c>
-      <c r="E215" t="n">
+      <c r="E215">
         <v>2015</v>
       </c>
-      <c r="F215" t="n">
+      <c r="F215">
         <v>22950</v>
       </c>
-      <c r="G215" t="n">
+      <c r="G215">
         <v>2885</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" s="2" t="n">
+      <c r="B216" s="2">
         <v>44873</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>2327</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>7974</v>
       </c>
-      <c r="E216" t="n">
+      <c r="E216">
         <v>2030</v>
       </c>
-      <c r="F216" t="n">
+      <c r="F216">
         <v>23410</v>
       </c>
-      <c r="G216" t="n">
+      <c r="G216">
         <v>2901.5</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" s="2" t="n">
+      <c r="B217" s="2">
         <v>44874</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>2338</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>8035</v>
       </c>
-      <c r="E217" t="n">
+      <c r="E217">
         <v>2060</v>
       </c>
-      <c r="F217" t="n">
+      <c r="F217">
         <v>24095</v>
       </c>
-      <c r="G217" t="n">
+      <c r="G217">
         <v>2890</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" s="2" t="n">
+      <c r="B218" s="2">
         <v>44875</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>2272</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>8065</v>
       </c>
-      <c r="E218" t="n">
+      <c r="E218">
         <v>2065</v>
       </c>
-      <c r="F218" t="n">
+      <c r="F218">
         <v>24420</v>
       </c>
-      <c r="G218" t="n">
+      <c r="G218">
         <v>2832</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" s="2" t="n">
+      <c r="B219" s="2">
         <v>44876</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>2410</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>8441</v>
       </c>
-      <c r="E219" t="n">
+      <c r="E219">
         <v>2156.5</v>
       </c>
-      <c r="F219" t="n">
+      <c r="F219">
         <v>26025</v>
       </c>
-      <c r="G219" t="n">
+      <c r="G219">
         <v>3006.5</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" s="2" t="n">
+      <c r="B220" s="2">
         <v>44879</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>2392</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>8346</v>
       </c>
-      <c r="E220" t="n">
+      <c r="E220">
         <v>2175</v>
       </c>
-      <c r="F220" t="n">
+      <c r="F220">
         <v>27005</v>
       </c>
-      <c r="G220" t="n">
+      <c r="G220">
         <v>3076</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" s="2" t="n">
+      <c r="B221" s="2">
         <v>44880</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>2410</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>8343</v>
       </c>
-      <c r="E221" t="n">
+      <c r="E221">
         <v>2212.5</v>
       </c>
-      <c r="F221" t="n">
+      <c r="F221">
         <v>29600</v>
       </c>
-      <c r="G221" t="n">
+      <c r="G221">
         <v>3145</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" s="2" t="n">
+      <c r="B222" s="2">
         <v>44881</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>2393</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>8315</v>
       </c>
-      <c r="E222" t="n">
+      <c r="E222">
         <v>2209</v>
       </c>
-      <c r="F222" t="n">
+      <c r="F222">
         <v>28555</v>
       </c>
-      <c r="G222" t="n">
+      <c r="G222">
         <v>3087</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" s="2" t="n">
+      <c r="B223" s="2">
         <v>44882</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>2342.5</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>8155</v>
       </c>
-      <c r="E223" t="n">
+      <c r="E223">
         <v>2147</v>
       </c>
-      <c r="F223" t="n">
+      <c r="F223">
         <v>26070</v>
       </c>
-      <c r="G223" t="n">
+      <c r="G223">
         <v>3000</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" s="2" t="n">
+      <c r="B224" s="2">
         <v>44883</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>2369</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>8047</v>
       </c>
-      <c r="E224" t="n">
+      <c r="E224">
         <v>2175</v>
       </c>
-      <c r="F224" t="n">
+      <c r="F224">
         <v>24850</v>
       </c>
-      <c r="G224" t="n">
+      <c r="G224">
         <v>3007.5</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" s="2" t="n">
+      <c r="B225" s="2">
         <v>44886</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>2344</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>7900.5</v>
       </c>
-      <c r="E225" t="n">
+      <c r="E225">
         <v>2113</v>
       </c>
-      <c r="F225" t="n">
+      <c r="F225">
         <v>24450</v>
       </c>
-      <c r="G225" t="n">
+      <c r="G225">
         <v>2932</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" s="2" t="n">
+      <c r="B226" s="2">
         <v>44887</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>2394</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>7996</v>
       </c>
-      <c r="E226" t="n">
+      <c r="E226">
         <v>2095.5</v>
       </c>
-      <c r="F226" t="n">
+      <c r="F226">
         <v>25700</v>
       </c>
-      <c r="G226" t="n">
+      <c r="G226">
         <v>2904.5</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" s="2" t="n">
+      <c r="B227" s="2">
         <v>44888</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>2364</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>7962</v>
       </c>
-      <c r="E227" t="n">
+      <c r="E227">
         <v>2082</v>
       </c>
-      <c r="F227" t="n">
+      <c r="F227">
         <v>25900</v>
       </c>
-      <c r="G227" t="n">
+      <c r="G227">
         <v>2892</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" s="2" t="n">
+      <c r="B228" s="2">
         <v>44889</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>2344</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>7990.5</v>
       </c>
-      <c r="E228" t="n">
+      <c r="E228">
         <v>2128</v>
       </c>
-      <c r="F228" t="n">
+      <c r="F228">
         <v>26160</v>
       </c>
-      <c r="G228" t="n">
+      <c r="G228">
         <v>2912</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" s="2" t="n">
+      <c r="B229" s="2">
         <v>44890</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>2346</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>8070</v>
       </c>
-      <c r="E229" t="n">
+      <c r="E229">
         <v>2135</v>
       </c>
-      <c r="F229" t="n">
+      <c r="F229">
         <v>25600</v>
       </c>
-      <c r="G229" t="n">
+      <c r="G229">
         <v>2925</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" s="2" t="n">
+      <c r="B230" s="2">
         <v>44893</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>2315.5</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>7966</v>
       </c>
-      <c r="E230" t="n">
+      <c r="E230">
         <v>2107</v>
       </c>
-      <c r="F230" t="n">
+      <c r="F230">
         <v>25250</v>
       </c>
-      <c r="G230" t="n">
+      <c r="G230">
         <v>2912</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" s="2" t="n">
+      <c r="B231" s="2">
         <v>44894</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>2341.5</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>8035.5</v>
       </c>
-      <c r="E231" t="n">
+      <c r="E231">
         <v>2122</v>
       </c>
-      <c r="F231" t="n">
+      <c r="F231">
         <v>26255</v>
       </c>
-      <c r="G231" t="n">
+      <c r="G231">
         <v>2956</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" s="2" t="n">
+      <c r="B232" s="2">
         <v>44895</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>2387</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>8198</v>
       </c>
-      <c r="E232" t="n">
+      <c r="E232">
         <v>2164</v>
       </c>
-      <c r="F232" t="n">
+      <c r="F232">
         <v>26500</v>
       </c>
-      <c r="G232" t="n">
+      <c r="G232">
         <v>2974</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" s="2" t="n">
+      <c r="B233" s="2">
         <v>44896</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>2430.5</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>8216.5</v>
       </c>
-      <c r="E233" t="n">
+      <c r="E233">
         <v>2155</v>
       </c>
-      <c r="F233" t="n">
+      <c r="F233">
         <v>26950</v>
       </c>
-      <c r="G233" t="n">
+      <c r="G233">
         <v>3056.5</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" s="2" t="n">
+      <c r="B234" s="2">
         <v>44897</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>2448.5</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>8342</v>
       </c>
-      <c r="E234" t="n">
+      <c r="E234">
         <v>2171</v>
       </c>
-      <c r="F234" t="n">
+      <c r="F234">
         <v>27145</v>
       </c>
-      <c r="G234" t="n">
+      <c r="G234">
         <v>3066.5</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" s="2" t="n">
+      <c r="B235" s="2">
         <v>44900</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>2485</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>8440</v>
       </c>
-      <c r="E235" t="n">
+      <c r="E235">
         <v>2194.5</v>
       </c>
-      <c r="F235" t="n">
+      <c r="F235">
         <v>28365</v>
       </c>
-      <c r="G235" t="n">
+      <c r="G235">
         <v>3120.5</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" s="2" t="n">
+      <c r="B236" s="2">
         <v>44901</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>2461</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>8355.5</v>
       </c>
-      <c r="E236" t="n">
+      <c r="E236">
         <v>2210</v>
       </c>
-      <c r="F236" t="n">
+      <c r="F236">
         <v>28250</v>
       </c>
-      <c r="G236" t="n">
+      <c r="G236">
         <v>3187</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" s="2" t="n">
+      <c r="B237" s="2">
         <v>44902</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>2450.5</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>8334</v>
       </c>
-      <c r="E237" t="n">
+      <c r="E237">
         <v>2206</v>
       </c>
-      <c r="F237" t="n">
+      <c r="F237">
         <v>28725</v>
       </c>
-      <c r="G237" t="n">
+      <c r="G237">
         <v>3140</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" s="2" t="n">
+      <c r="B238" s="2">
         <v>44903</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>2468.5</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>8537</v>
       </c>
-      <c r="E238" t="n">
+      <c r="E238">
         <v>2199</v>
       </c>
-      <c r="F238" t="n">
+      <c r="F238">
         <v>31075</v>
       </c>
-      <c r="G238" t="n">
+      <c r="G238">
         <v>3242</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" s="2" t="n">
+      <c r="B239" s="2">
         <v>44904</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>2453.5</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>8490.5</v>
       </c>
-      <c r="E239" t="n">
+      <c r="E239">
         <v>2207</v>
       </c>
-      <c r="F239" t="n">
+      <c r="F239">
         <v>29850</v>
       </c>
-      <c r="G239" t="n">
+      <c r="G239">
         <v>3247</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" s="2" t="n">
+      <c r="B240" s="2">
         <v>44907</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>2390</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>8371.5</v>
       </c>
-      <c r="E240" t="n">
+      <c r="E240">
         <v>2190</v>
       </c>
-      <c r="F240" t="n">
+      <c r="F240">
         <v>29310</v>
       </c>
-      <c r="G240" t="n">
+      <c r="G240">
         <v>3284</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" s="2" t="n">
+      <c r="B241" s="2">
         <v>44908</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>2388</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>8381</v>
       </c>
-      <c r="E241" t="n">
+      <c r="E241">
         <v>2201</v>
       </c>
-      <c r="F241" t="n">
+      <c r="F241">
         <v>28800</v>
       </c>
-      <c r="G241" t="n">
+      <c r="G241">
         <v>3289</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" s="2" t="n">
+      <c r="B242" s="2">
         <v>44909</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>2379.5</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>8415</v>
       </c>
-      <c r="E242" t="n">
+      <c r="E242">
         <v>2147</v>
       </c>
-      <c r="F242" t="n">
+      <c r="F242">
         <v>27850</v>
       </c>
-      <c r="G242" t="n">
+      <c r="G242">
         <v>3277</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" s="2" t="n">
+      <c r="B243" s="2">
         <v>44910</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>2396</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>8383</v>
       </c>
-      <c r="E243" t="n">
+      <c r="E243">
         <v>2133</v>
       </c>
-      <c r="F243" t="n">
+      <c r="F243">
         <v>28625</v>
       </c>
-      <c r="G243" t="n">
+      <c r="G243">
         <v>3235</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" s="2" t="n">
+      <c r="B244" s="2">
         <v>44911</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>2354</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>8231.5</v>
       </c>
-      <c r="E244" t="n">
+      <c r="E244">
         <v>2156</v>
       </c>
-      <c r="F244" t="n">
+      <c r="F244">
         <v>28850</v>
       </c>
-      <c r="G244" t="n">
+      <c r="G244">
         <v>3127</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" s="2" t="n">
+      <c r="B245" s="2">
         <v>44914</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>2327</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>8331</v>
       </c>
-      <c r="E245" t="n">
+      <c r="E245">
         <v>2179</v>
       </c>
-      <c r="F245" t="n">
+      <c r="F245">
         <v>27525</v>
       </c>
-      <c r="G245" t="n">
+      <c r="G245">
         <v>3060</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" s="2" t="n">
+      <c r="B246" s="2">
         <v>44915</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>2329.5</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>8302</v>
       </c>
-      <c r="E246" t="n">
+      <c r="E246">
         <v>2175</v>
       </c>
-      <c r="F246" t="n">
+      <c r="F246">
         <v>28400</v>
       </c>
-      <c r="G246" t="n">
+      <c r="G246">
         <v>3075</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" s="2" t="n">
+      <c r="B247" s="2">
         <v>44916</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>2357</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>8327</v>
       </c>
-      <c r="E247" t="n">
+      <c r="E247">
         <v>2217</v>
       </c>
-      <c r="F247" t="n">
+      <c r="F247">
         <v>28175</v>
       </c>
-      <c r="G247" t="n">
+      <c r="G247">
         <v>3065.5</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" s="2" t="n">
+      <c r="B248" s="2">
         <v>44917</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>2362</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>8345.5</v>
       </c>
-      <c r="E248" t="n">
+      <c r="E248">
         <v>2277</v>
       </c>
-      <c r="F248" t="n">
+      <c r="F248">
         <v>28650</v>
       </c>
-      <c r="G248" t="n">
+      <c r="G248">
         <v>3008</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" s="2" t="n">
+      <c r="B249" s="2">
         <v>44918</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>2342</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>8308.5</v>
       </c>
-      <c r="E249" t="n">
+      <c r="E249">
         <v>2280</v>
       </c>
-      <c r="F249" t="n">
+      <c r="F249">
         <v>29600</v>
       </c>
-      <c r="G249" t="n">
+      <c r="G249">
         <v>2985</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" s="2" t="n">
+      <c r="B250" s="2">
         <v>44923</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>2343</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>8451</v>
       </c>
-      <c r="E250" t="n">
+      <c r="E250">
         <v>2303</v>
       </c>
-      <c r="F250" t="n">
+      <c r="F250">
         <v>30505</v>
       </c>
-      <c r="G250" t="n">
+      <c r="G250">
         <v>3056</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" s="2" t="n">
+      <c r="B251" s="2">
         <v>44924</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>2371.5</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>8395</v>
       </c>
-      <c r="E251" t="n">
+      <c r="E251">
         <v>2314</v>
       </c>
-      <c r="F251" t="n">
+      <c r="F251">
         <v>30000</v>
       </c>
-      <c r="G251" t="n">
+      <c r="G251">
         <v>3019</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" s="2" t="n">
+      <c r="B252" s="2">
         <v>44925</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>2360.5</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>8387</v>
       </c>
-      <c r="E252" t="n">
+      <c r="E252">
         <v>2335</v>
       </c>
-      <c r="F252" t="n">
+      <c r="F252">
         <v>30425</v>
       </c>
-      <c r="G252" t="n">
+      <c r="G252">
         <v>3025</v>
       </c>
     </row>

--- a/code/LME/parser_beta/data/LME_db.xlsx
+++ b/code/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G252"/>
+  <dimension ref="A1:G253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6242,6 +6242,29 @@
         <v>3025</v>
       </c>
     </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="C253" t="n">
+        <v>2337.5</v>
+      </c>
+      <c r="D253" t="n">
+        <v>8390</v>
+      </c>
+      <c r="E253" t="n">
+        <v>2322</v>
+      </c>
+      <c r="F253" t="n">
+        <v>31200</v>
+      </c>
+      <c r="G253" t="n">
+        <v>3004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/code/LME/parser_beta/data/LME_db.xlsx
+++ b/code/LME/parser_beta/data/LME_db.xlsx
@@ -1,40 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hotdonkey/Documents/GitHub/data_science_learning/code/LME/parser_beta/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28D5D9F-2BA5-4945-BAE3-19E7D9DC6226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LME_non_ferrous" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="LME_non_ferrous" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>aluminium</t>
+  </si>
+  <si>
+    <t>copper</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>nikel</t>
+  </si>
+  <si>
+    <t>zink</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +78,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,5845 +403,5855 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G253"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G254"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="C237" sqref="C237"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>aluminium</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>copper</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>lead</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>nikel</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>zink</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>44565</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>2815.5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>9660</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>2327</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>20730</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>3602</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>44566</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2866</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>9778</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>2343</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>20900</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>3660</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>44567</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2912.5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>9565</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>2291</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>20480</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>3590</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>44568</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>2919.5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>9615</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>2342</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>20725</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>3602.5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>44571</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>2923</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>9665</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>2303</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>21045</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>3576.5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>44572</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>2950</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>9662</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>2305</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>21680</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>3540</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>44573</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>3003</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>9945</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>2344.5</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>22200</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>3582</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>44574</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>2960</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>9972</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>2367</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>22130</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>3575</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>44575</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>2977.5</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>9900</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>2383</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>22850</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>3560</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>44578</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>3009</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>9674.5</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>2358</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>22475</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>3535</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>44579</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>3006</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>9707</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>2357</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>22740</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>3544</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>44580</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>3036</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>9801</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>2352</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>22795</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>3602</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>44581</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>3109.5</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>9925</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>2370</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>23900</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>3674</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>44582</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3079.5</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>9970</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>2393.5</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>24000</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>3686</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>44585</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>3044.5</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>9800</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>2372</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>23500</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>3642</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>44586</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>3064</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>9744</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>2359</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>22535</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>3615</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>44587</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>3093</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>9965</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>2366</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>23425</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>3645</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>44588</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>3107</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>9872</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>2330</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>22860</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>3649</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="2">
         <v>44589</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>3110</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>9678</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>2302</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>22750</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>3644</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="2">
         <v>44592</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>3076</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>9620</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>2289</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>22800</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>3675</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="2">
         <v>44593</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>3072</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>9701</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>2250</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>23300</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>3635</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="2">
         <v>44594</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>3043</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>9880</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>2247</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>23400</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>3650</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="2">
         <v>44595</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>3058.5</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>9785</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>2229</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>23225</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>3618</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="2">
         <v>44596</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>3087</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>9875</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>2225</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>23475</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>3635</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="2">
         <v>44599</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>3148</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>9850</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>2199</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>23650</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>3623</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="2">
         <v>44600</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>3245</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>9760</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>2204</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>23530</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>3653</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="2">
         <v>44601</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>3248</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>9881</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>2234</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>23550</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>3633.5</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="2">
         <v>44602</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>3313</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>10220.5</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>2300</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>24055</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>3738</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="2">
         <v>44603</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>3200</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>10040</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>2289</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>23705</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>3673</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="2">
         <v>44606</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>3306</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>9882</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>2300</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>23650</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>3631</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="2">
         <v>44607</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>3223</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>10020</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>2310</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>23950</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>3613</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="2">
         <v>44608</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>3282</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>10045.5</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>2340</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>23905</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>3634</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="2">
         <v>44609</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>3294</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>10010</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>2351</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>24150</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>3621</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="2">
         <v>44610</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>3314</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>10015</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>2363</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>24500</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>3668.5</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="2">
         <v>44613</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>3315</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>9960</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>2343.5</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>24870</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>3600</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="2">
         <v>44614</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>3420</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>10020</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>2335</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>25650</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>3628</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="2">
         <v>44615</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>3323.5</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>10005</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>2347.5</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>24950</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>3615.5</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="2">
         <v>44616</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>3519</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>9983</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>2370</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>26105</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>3670</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="2" t="n">
+      <c r="B40" s="2">
         <v>44617</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>3355.5</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>9920</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>2359</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>24700</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>3640</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="2">
         <v>44620</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>3450</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>9974</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>2402</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>25240</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>3705</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="2">
         <v>44621</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>3495.5</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>9976</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>2413</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>25450</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>3737</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B43" s="2">
         <v>44622</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>3605</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>10257.5</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>2433.5</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>27000</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>3927</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="2">
         <v>44623</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>3728.5</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>10470</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>2424.5</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>28800</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>3985</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B45" s="2">
         <v>44624</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>3851</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>10466</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>2440</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>29800</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>4024.5</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="2">
         <v>44627</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>3984.5</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>10730</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>2513</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>42995</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>4248</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B47" s="2">
         <v>44628</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>3500.5</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>10171</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>2491</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>48201</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>4091</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B48" s="2">
         <v>44629</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>3532</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>10052</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>2401</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>48211</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>3940</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="2" t="n">
+      <c r="B49" s="2">
         <v>44630</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>3535</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>10144</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>2401</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>48241</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>3961</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="2" t="n">
+      <c r="B50" s="2">
         <v>44631</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>3472</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>10145</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>2361</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>48226</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>3835</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="2" t="n">
+      <c r="B51" s="2">
         <v>44634</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>3399</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>9880</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>2272</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>48211</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>3782</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="2" t="n">
+      <c r="B52" s="2">
         <v>44635</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>3217.5</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>9826</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>2230</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>48196</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>3771</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="2" t="n">
+      <c r="B53" s="2">
         <v>44636</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>3306</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>10100.5</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>2245</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>45795</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>3821</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="2" t="n">
+      <c r="B54" s="2">
         <v>44637</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>3288</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>10166</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>2235</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>42150</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>3805</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="2" t="n">
+      <c r="B55" s="2">
         <v>44638</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>3380.5</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>10249</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>2259</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>37115</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>3850</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="2" t="n">
+      <c r="B56" s="2">
         <v>44641</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>3518</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>10173</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>2248</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>31580</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>3896</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B57" s="2">
         <v>44642</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>3550.5</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>10342</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>2270</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>30800</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>3945</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="2" t="n">
+      <c r="B58" s="2">
         <v>44643</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>3560</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>10311</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>2336.5</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>32355</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>4018</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="2" t="n">
+      <c r="B59" s="2">
         <v>44644</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>3664</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>10421</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>2350</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>37200</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>4140</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="2" t="n">
+      <c r="B60" s="2">
         <v>44645</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>3583</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>10280</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>2346</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>35550</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>4073</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="2" t="n">
+      <c r="B61" s="2">
         <v>44648</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>3606</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>10227</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>2369.5</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>34050</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>4064</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="2" t="n">
+      <c r="B62" s="2">
         <v>44649</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>3583</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>10350</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>2394</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>33100</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>4101</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="2" t="n">
+      <c r="B63" s="2">
         <v>44650</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>3508</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>10390.5</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>2402</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>32750</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>4134.5</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="2" t="n">
+      <c r="B64" s="2">
         <v>44651</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>3503</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>10337</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>2433</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>33400</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>4260</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="2" t="n">
+      <c r="B65" s="2">
         <v>44652</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>3483</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>10247</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>2447</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>32800</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>4332</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="2" t="n">
+      <c r="B66" s="2">
         <v>44655</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>3444</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>10301.5</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>2435</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>33690</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>4471</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="2" t="n">
+      <c r="B67" s="2">
         <v>44656</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>3415</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>10426</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>2419</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>33750</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>4310</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="2" t="n">
+      <c r="B68" s="2">
         <v>44657</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>3443.5</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>10350.5</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>2389</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>33600</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>4306</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="2" t="n">
+      <c r="B69" s="2">
         <v>44658</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>3346</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>10292</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>2405</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>33500</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>4250</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="2" t="n">
+      <c r="B70" s="2">
         <v>44659</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>3395</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>10390</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>2425</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>34100</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>4280</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="2" t="n">
+      <c r="B71" s="2">
         <v>44662</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>3234.5</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>10235.5</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>2409</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>32925</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>4372</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="2" t="n">
+      <c r="B72" s="2">
         <v>44663</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>3214.5</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>10201</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>2418</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>32450</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>4345</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="2" t="n">
+      <c r="B73" s="2">
         <v>44664</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>3207</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>10290.5</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>2450</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>33000</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>4515</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="2" t="n">
+      <c r="B74" s="2">
         <v>44665</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>3237.5</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>10277</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>2471</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>33250</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>4472</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="2" t="n">
+      <c r="B75" s="2">
         <v>44670</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>3312</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>10381</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>2425</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>33700</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>4530</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="2" t="n">
+      <c r="B76" s="2">
         <v>44671</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>3240</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>10215</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>2425</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>33800</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>4510</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="2" t="n">
+      <c r="B77" s="2">
         <v>44672</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>3262</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>10268</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>2414</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>33775</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>4485</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="2" t="n">
+      <c r="B78" s="2">
         <v>44673</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>3244</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>10230.5</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>2400</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>33850</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>4515</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="2" t="n">
+      <c r="B79" s="2">
         <v>44676</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>3090</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>9919</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>2368</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>32650</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>4279.5</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="2" t="n">
+      <c r="B80" s="2">
         <v>44677</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>3102.5</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>9912.5</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>2359</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>32825</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>4315</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="2" t="n">
+      <c r="B81" s="2">
         <v>44678</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>3100</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>9910</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>2320</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>33300</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>4319.5</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="2" t="n">
+      <c r="B82" s="2">
         <v>44679</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>3065.5</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>9812</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>2280</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>33275</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>4230.5</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="2" t="n">
+      <c r="B83" s="2">
         <v>44680</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>3039</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>9820.5</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>2279</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>32430</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>4212</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="2" t="n">
+      <c r="B84" s="2">
         <v>44684</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>2911.5</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>9511</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>2268</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>30910</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>4045</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="2" t="n">
+      <c r="B85" s="2">
         <v>44685</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>2929</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>9474</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>2275</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>30385</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>3955</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="2" t="n">
+      <c r="B86" s="2">
         <v>44686</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>2917</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>9541</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>2305</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>30200</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>3993</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="2" t="n">
+      <c r="B87" s="2">
         <v>44687</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>2832.5</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>9428</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>2231</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>29930</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>3829</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="2" t="n">
+      <c r="B88" s="2">
         <v>44690</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>2708</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>9160</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>2129</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>28400</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>3655</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="2" t="n">
+      <c r="B89" s="2">
         <v>44691</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>2677</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>9350</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>2117</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>27760</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>3642</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="2" t="n">
+      <c r="B90" s="2">
         <v>44692</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>2737</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>9367</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>2107</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>27800</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>3660</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="2" t="n">
+      <c r="B91" s="2">
         <v>44693</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>2688</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>9018.5</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>2073</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>27600</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>3541</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="2" t="n">
+      <c r="B92" s="2">
         <v>44694</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>2723</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>9064</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>2064</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>27425</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>3500</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="2" t="n">
+      <c r="B93" s="2">
         <v>44697</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>2791</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>9270</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>2094</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>26105</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>3583.5</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="2" t="n">
+      <c r="B94" s="2">
         <v>44698</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>2836</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>9396</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>2102</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>26300</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>3687</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="2" t="n">
+      <c r="B95" s="2">
         <v>44699</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>2845</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>9264.5</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>2077</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>26180</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>3646.5</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="2" t="n">
+      <c r="B96" s="2">
         <v>44700</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>2826</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>9287</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>2033</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>26125</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>3647.5</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="2" t="n">
+      <c r="B97" s="2">
         <v>44701</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>2931</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>9477</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>2146</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>27950</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>3755</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="2" t="n">
+      <c r="B98" s="2">
         <v>44704</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>2963</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>9500.5</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>2167</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>26800</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>3777</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="2" t="n">
+      <c r="B99" s="2">
         <v>44705</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>2881</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>9460.5</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>2181.5</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>26280</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>3769</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="2" t="n">
+      <c r="B100" s="2">
         <v>44706</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>2829.5</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>9287</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>2121.5</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>26725</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>3750</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="2" t="n">
+      <c r="B101" s="2">
         <v>44707</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>2825.5</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>9359</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>2106</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>27550</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>3744</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" s="2" t="n">
+      <c r="B102" s="2">
         <v>44708</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>2823</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>9383</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>2091.5</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>27850</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>3815</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" s="2" t="n">
+      <c r="B103" s="2">
         <v>44711</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>2863</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>9520.5</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>2184</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103">
         <v>29975</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103">
         <v>3976</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" s="2" t="n">
+      <c r="B104" s="2">
         <v>44712</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>2816.5</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>9500.5</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>2176</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>28700</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104">
         <v>3978</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" s="2" t="n">
+      <c r="B105" s="2">
         <v>44713</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>2701.5</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>9455</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>2143.5</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>27710</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105">
         <v>3896</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" s="2" t="n">
+      <c r="B106" s="2">
         <v>44718</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>2742</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>9712</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>2181</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106">
         <v>29400</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106">
         <v>3913</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" s="2" t="n">
+      <c r="B107" s="2">
         <v>44719</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>2715</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>9612</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>2169</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107">
         <v>29050</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107">
         <v>3745.5</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" s="2" t="n">
+      <c r="B108" s="2">
         <v>44720</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>2765.5</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>9692</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>2225</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>28860</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108">
         <v>3822</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" s="2" t="n">
+      <c r="B109" s="2">
         <v>44721</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>2752.5</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>9630</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>2198</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109">
         <v>28055</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G109">
         <v>3792</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" s="2" t="n">
+      <c r="B110" s="2">
         <v>44722</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>2695</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>9537</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>2151</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110">
         <v>27570</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G110">
         <v>3755</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" s="2" t="n">
+      <c r="B111" s="2">
         <v>44725</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>2589.5</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>9290</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>2102</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111">
         <v>26390</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111">
         <v>3607</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" s="2" t="n">
+      <c r="B112" s="2">
         <v>44726</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>2588</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>9263</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>2075</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112">
         <v>25500</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G112">
         <v>3661</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" s="2" t="n">
+      <c r="B113" s="2">
         <v>44727</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>2580</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>9257</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>2082</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113">
         <v>25650</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G113">
         <v>3701</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" s="2" t="n">
+      <c r="B114" s="2">
         <v>44728</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>2500.5</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>9105</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>2067</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114">
         <v>25425</v>
       </c>
-      <c r="G114" t="n">
+      <c r="G114">
         <v>3636</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" s="2" t="n">
+      <c r="B115" s="2">
         <v>44729</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>2474</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>9101</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>2073</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115">
         <v>25435</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G115">
         <v>3580</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" s="2" t="n">
+      <c r="B116" s="2">
         <v>44732</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>2462</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>8875</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>2046</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F116">
         <v>25230</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G116">
         <v>3572</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" s="2" t="n">
+      <c r="B117" s="2">
         <v>44733</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>2519.5</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>9000</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>2080.5</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117">
         <v>25540</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G117">
         <v>3721</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" s="2" t="n">
+      <c r="B118" s="2">
         <v>44734</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>2455.5</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>8729</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>2040</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118">
         <v>24975</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G118">
         <v>3699.5</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" s="2" t="n">
+      <c r="B119" s="2">
         <v>44735</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>2480</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>8578</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>1985</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119">
         <v>24110</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G119">
         <v>3677</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" s="2" t="n">
+      <c r="B120" s="2">
         <v>44736</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>2436</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>8280.5</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>1896</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120">
         <v>22900</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G120">
         <v>3540</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" s="2" t="n">
+      <c r="B121" s="2">
         <v>44739</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>2453</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>8353</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>1982</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121">
         <v>23200</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121">
         <v>3450</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" s="2" t="n">
+      <c r="B122" s="2">
         <v>44740</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>2500</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>8502</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122">
         <v>1989.5</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F122">
         <v>23900</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G122">
         <v>3449.5</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" s="2" t="n">
+      <c r="B123" s="2">
         <v>44741</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>2452</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>8446</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123">
         <v>1955</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F123">
         <v>24750</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G123">
         <v>3410</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" s="2" t="n">
+      <c r="B124" s="2">
         <v>44742</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>2397</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>8245</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124">
         <v>1907</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F124">
         <v>23100</v>
       </c>
-      <c r="G124" t="n">
+      <c r="G124">
         <v>3251.5</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" s="2" t="n">
+      <c r="B125" s="2">
         <v>44743</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>2384</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>7975.5</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125">
         <v>1919</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125">
         <v>21650</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G125">
         <v>3125</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" s="2" t="n">
+      <c r="B126" s="2">
         <v>44746</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>2431.5</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>8036</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126">
         <v>1947</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F126">
         <v>22685</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G126">
         <v>3170</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" s="2" t="n">
+      <c r="B127" s="2">
         <v>44747</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>2374</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>7807</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127">
         <v>1932.5</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127">
         <v>21925</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G127">
         <v>3041</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" s="2" t="n">
+      <c r="B128" s="2">
         <v>44748</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>2358</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>7525.5</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128">
         <v>1981.5</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F128">
         <v>22225</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G128">
         <v>3060</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" s="2" t="n">
+      <c r="B129" s="2">
         <v>44749</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>2417.5</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>7835</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E129">
         <v>2015</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F129">
         <v>22025</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G129">
         <v>3162</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" s="2" t="n">
+      <c r="B130" s="2">
         <v>44750</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>2399.5</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>7790</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130">
         <v>1948</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F130">
         <v>21255</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G130">
         <v>3151</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" s="2" t="n">
+      <c r="B131" s="2">
         <v>44753</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>2417</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>7623</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131">
         <v>1940</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F131">
         <v>21500</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G131">
         <v>3122</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" s="2" t="n">
+      <c r="B132" s="2">
         <v>44754</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>2358</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>7370.5</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132">
         <v>1945</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F132">
         <v>21450</v>
       </c>
-      <c r="G132" t="n">
+      <c r="G132">
         <v>3137</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" s="2" t="n">
+      <c r="B133" s="2">
         <v>44755</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>2343</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>7267</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133">
         <v>1981</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F133">
         <v>21700</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G133">
         <v>3060.5</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" s="2" t="n">
+      <c r="B134" s="2">
         <v>44756</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>2329</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>7216</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E134">
         <v>1891</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F134">
         <v>20335</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G134">
         <v>2972</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" s="2" t="n">
+      <c r="B135" s="2">
         <v>44757</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>2320.5</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>7000</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135">
         <v>1925</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F135">
         <v>19100</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G135">
         <v>2921</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" s="2" t="n">
+      <c r="B136" s="2">
         <v>44760</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>2377.5</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>7320</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136">
         <v>1994</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F136">
         <v>20200</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G136">
         <v>3032</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" s="2" t="n">
+      <c r="B137" s="2">
         <v>44761</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>2412</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>7281.5</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E137">
         <v>1972</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F137">
         <v>21350</v>
       </c>
-      <c r="G137" t="n">
+      <c r="G137">
         <v>3045</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" s="2" t="n">
+      <c r="B138" s="2">
         <v>44762</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>2456.5</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>7371</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E138">
         <v>2032</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F138">
         <v>21300</v>
       </c>
-      <c r="G138" t="n">
+      <c r="G138">
         <v>3090</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" s="2" t="n">
+      <c r="B139" s="2">
         <v>44763</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>2426</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>7231.5</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E139">
         <v>1996</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F139">
         <v>21200</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G139">
         <v>3005</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" s="2" t="n">
+      <c r="B140" s="2">
         <v>44764</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>2460</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>7372</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E140">
         <v>2005</v>
       </c>
-      <c r="F140" t="n">
+      <c r="F140">
         <v>21530</v>
       </c>
-      <c r="G140" t="n">
+      <c r="G140">
         <v>3045</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" s="2" t="n">
+      <c r="B141" s="2">
         <v>44767</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>2431.5</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>7448</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E141">
         <v>2021</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F141">
         <v>22550</v>
       </c>
-      <c r="G141" t="n">
+      <c r="G141">
         <v>3050</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" s="2" t="n">
+      <c r="B142" s="2">
         <v>44768</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>2437</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>7591.5</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E142">
         <v>2004</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F142">
         <v>22320</v>
       </c>
-      <c r="G142" t="n">
+      <c r="G142">
         <v>3140</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" s="2" t="n">
+      <c r="B143" s="2">
         <v>44769</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>2390.5</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>7552</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E143">
         <v>2016.5</v>
       </c>
-      <c r="F143" t="n">
+      <c r="F143">
         <v>21300</v>
       </c>
-      <c r="G143" t="n">
+      <c r="G143">
         <v>3116</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" s="2" t="n">
+      <c r="B144" s="2">
         <v>44770</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>2458</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>7712</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E144">
         <v>2013</v>
       </c>
-      <c r="F144" t="n">
+      <c r="F144">
         <v>21500</v>
       </c>
-      <c r="G144" t="n">
+      <c r="G144">
         <v>3246</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" s="2" t="n">
+      <c r="B145" s="2">
         <v>44771</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>2452</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>7800.5</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E145">
         <v>2023</v>
       </c>
-      <c r="F145" t="n">
+      <c r="F145">
         <v>22050</v>
       </c>
-      <c r="G145" t="n">
+      <c r="G145">
         <v>3351</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" s="2" t="n">
+      <c r="B146" s="2">
         <v>44774</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>2469.5</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>7930.5</v>
       </c>
-      <c r="E146" t="n">
+      <c r="E146">
         <v>2057</v>
       </c>
-      <c r="F146" t="n">
+      <c r="F146">
         <v>24025</v>
       </c>
-      <c r="G146" t="n">
+      <c r="G146">
         <v>3405.5</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" s="2" t="n">
+      <c r="B147" s="2">
         <v>44775</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>2448.5</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>7819</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E147">
         <v>2042</v>
       </c>
-      <c r="F147" t="n">
+      <c r="F147">
         <v>22825</v>
       </c>
-      <c r="G147" t="n">
+      <c r="G147">
         <v>3445</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" s="2" t="n">
+      <c r="B148" s="2">
         <v>44776</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>2403</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>7774</v>
       </c>
-      <c r="E148" t="n">
+      <c r="E148">
         <v>2021</v>
       </c>
-      <c r="F148" t="n">
+      <c r="F148">
         <v>22000</v>
       </c>
-      <c r="G148" t="n">
+      <c r="G148">
         <v>3355</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" s="2" t="n">
+      <c r="B149" s="2">
         <v>44777</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>2374</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>7642</v>
       </c>
-      <c r="E149" t="n">
+      <c r="E149">
         <v>2019.5</v>
       </c>
-      <c r="F149" t="n">
+      <c r="F149">
         <v>22035</v>
       </c>
-      <c r="G149" t="n">
+      <c r="G149">
         <v>3431</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" s="2" t="n">
+      <c r="B150" s="2">
         <v>44778</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>2447.5</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>7830.5</v>
       </c>
-      <c r="E150" t="n">
+      <c r="E150">
         <v>2092</v>
       </c>
-      <c r="F150" t="n">
+      <c r="F150">
         <v>22170</v>
       </c>
-      <c r="G150" t="n">
+      <c r="G150">
         <v>3550</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" s="2" t="n">
+      <c r="B151" s="2">
         <v>44781</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>2435.5</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>7835</v>
       </c>
-      <c r="E151" t="n">
+      <c r="E151">
         <v>2140.5</v>
       </c>
-      <c r="F151" t="n">
+      <c r="F151">
         <v>21725</v>
       </c>
-      <c r="G151" t="n">
+      <c r="G151">
         <v>3507</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" s="2" t="n">
+      <c r="B152" s="2">
         <v>44782</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>2488</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>7971.5</v>
       </c>
-      <c r="E152" t="n">
+      <c r="E152">
         <v>2183</v>
       </c>
-      <c r="F152" t="n">
+      <c r="F152">
         <v>21355</v>
       </c>
-      <c r="G152" t="n">
+      <c r="G152">
         <v>3577</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" s="2" t="n">
+      <c r="B153" s="2">
         <v>44783</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>2462.5</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>7976</v>
       </c>
-      <c r="E153" t="n">
+      <c r="E153">
         <v>2175</v>
       </c>
-      <c r="F153" t="n">
+      <c r="F153">
         <v>21330</v>
       </c>
-      <c r="G153" t="n">
+      <c r="G153">
         <v>3632</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" s="2" t="n">
+      <c r="B154" s="2">
         <v>44784</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>2498</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>8140</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E154">
         <v>2185.5</v>
       </c>
-      <c r="F154" t="n">
+      <c r="F154">
         <v>23110</v>
       </c>
-      <c r="G154" t="n">
+      <c r="G154">
         <v>3727</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" s="2" t="n">
+      <c r="B155" s="2">
         <v>44785</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>2468.5</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>8065</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E155">
         <v>2176</v>
       </c>
-      <c r="F155" t="n">
+      <c r="F155">
         <v>23225</v>
       </c>
-      <c r="G155" t="n">
+      <c r="G155">
         <v>3672</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" s="2" t="n">
+      <c r="B156" s="2">
         <v>44788</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>2389.5</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>7865.5</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E156">
         <v>2175</v>
       </c>
-      <c r="F156" t="n">
+      <c r="F156">
         <v>21850</v>
       </c>
-      <c r="G156" t="n">
+      <c r="G156">
         <v>3621</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" s="2" t="n">
+      <c r="B157" s="2">
         <v>44789</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>2442</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>7992</v>
       </c>
-      <c r="E157" t="n">
+      <c r="E157">
         <v>2192</v>
       </c>
-      <c r="F157" t="n">
+      <c r="F157">
         <v>22500</v>
       </c>
-      <c r="G157" t="n">
+      <c r="G157">
         <v>3877</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" s="2" t="n">
+      <c r="B158" s="2">
         <v>44790</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>2414</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>7955</v>
       </c>
-      <c r="E158" t="n">
+      <c r="E158">
         <v>2141</v>
       </c>
-      <c r="F158" t="n">
+      <c r="F158">
         <v>22035</v>
       </c>
-      <c r="G158" t="n">
+      <c r="G158">
         <v>3635.5</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" s="2" t="n">
+      <c r="B159" s="2">
         <v>44791</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>2412</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>8020</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E159">
         <v>2126</v>
       </c>
-      <c r="F159" t="n">
+      <c r="F159">
         <v>21850</v>
       </c>
-      <c r="G159" t="n">
+      <c r="G159">
         <v>3574</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" s="2" t="n">
+      <c r="B160" s="2">
         <v>44792</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>2376</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>8051</v>
       </c>
-      <c r="E160" t="n">
+      <c r="E160">
         <v>2070</v>
       </c>
-      <c r="F160" t="n">
+      <c r="F160">
         <v>21575</v>
       </c>
-      <c r="G160" t="n">
+      <c r="G160">
         <v>3532</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" s="2" t="n">
+      <c r="B161" s="2">
         <v>44795</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>2387.5</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>8041</v>
       </c>
-      <c r="E161" t="n">
+      <c r="E161">
         <v>2032</v>
       </c>
-      <c r="F161" t="n">
+      <c r="F161">
         <v>21810</v>
       </c>
-      <c r="G161" t="n">
+      <c r="G161">
         <v>3550</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" s="2" t="n">
+      <c r="B162" s="2">
         <v>44796</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>2438.5</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>8100.5</v>
       </c>
-      <c r="E162" t="n">
+      <c r="E162">
         <v>2005</v>
       </c>
-      <c r="F162" t="n">
+      <c r="F162">
         <v>21780</v>
       </c>
-      <c r="G162" t="n">
+      <c r="G162">
         <v>3520</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" s="2" t="n">
+      <c r="B163" s="2">
         <v>44797</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>2422</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>8031.5</v>
       </c>
-      <c r="E163" t="n">
+      <c r="E163">
         <v>1958</v>
       </c>
-      <c r="F163" t="n">
+      <c r="F163">
         <v>21350</v>
       </c>
-      <c r="G163" t="n">
+      <c r="G163">
         <v>3561</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" s="2" t="n">
+      <c r="B164" s="2">
         <v>44798</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>2442.5</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>8155</v>
       </c>
-      <c r="E164" t="n">
+      <c r="E164">
         <v>1997</v>
       </c>
-      <c r="F164" t="n">
+      <c r="F164">
         <v>21250</v>
       </c>
-      <c r="G164" t="n">
+      <c r="G164">
         <v>3622</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" s="2" t="n">
+      <c r="B165" s="2">
         <v>44799</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>2495</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>8315</v>
       </c>
-      <c r="E165" t="n">
+      <c r="E165">
         <v>1997.5</v>
       </c>
-      <c r="F165" t="n">
+      <c r="F165">
         <v>21510</v>
       </c>
-      <c r="G165" t="n">
+      <c r="G165">
         <v>3678</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" s="2" t="n">
+      <c r="B166" s="2">
         <v>44803</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>2406.5</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>7910.5</v>
       </c>
-      <c r="E166" t="n">
+      <c r="E166">
         <v>1979</v>
       </c>
-      <c r="F166" t="n">
+      <c r="F166">
         <v>21385</v>
       </c>
-      <c r="G166" t="n">
+      <c r="G166">
         <v>3592</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" s="2" t="n">
+      <c r="B167" s="2">
         <v>44804</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>2368.5</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>7721</v>
       </c>
-      <c r="E167" t="n">
+      <c r="E167">
         <v>1950</v>
       </c>
-      <c r="F167" t="n">
+      <c r="F167">
         <v>21255</v>
       </c>
-      <c r="G167" t="n">
+      <c r="G167">
         <v>3540</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" s="2" t="n">
+      <c r="B168" s="2">
         <v>44805</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>2306</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>7702</v>
       </c>
-      <c r="E168" t="n">
+      <c r="E168">
         <v>1915</v>
       </c>
-      <c r="F168" t="n">
+      <c r="F168">
         <v>20525</v>
       </c>
-      <c r="G168" t="n">
+      <c r="G168">
         <v>3300</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" s="2" t="n">
+      <c r="B169" s="2">
         <v>44806</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>2309</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>7587</v>
       </c>
-      <c r="E169" t="n">
+      <c r="E169">
         <v>1890</v>
       </c>
-      <c r="F169" t="n">
+      <c r="F169">
         <v>20200</v>
       </c>
-      <c r="G169" t="n">
+      <c r="G169">
         <v>3144.5</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" s="2" t="n">
+      <c r="B170" s="2">
         <v>44809</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>2290.5</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>7652.5</v>
       </c>
-      <c r="E170" t="n">
+      <c r="E170">
         <v>1882</v>
       </c>
-      <c r="F170" t="n">
+      <c r="F170">
         <v>21000</v>
       </c>
-      <c r="G170" t="n">
+      <c r="G170">
         <v>3265</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" s="2" t="n">
+      <c r="B171" s="2">
         <v>44810</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>2260</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>7707</v>
       </c>
-      <c r="E171" t="n">
+      <c r="E171">
         <v>1895</v>
       </c>
-      <c r="F171" t="n">
+      <c r="F171">
         <v>21355</v>
       </c>
-      <c r="G171" t="n">
+      <c r="G171">
         <v>3217</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" s="2" t="n">
+      <c r="B172" s="2">
         <v>44811</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>2230.5</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>7730</v>
       </c>
-      <c r="E172" t="n">
+      <c r="E172">
         <v>1895</v>
       </c>
-      <c r="F172" t="n">
+      <c r="F172">
         <v>21450</v>
       </c>
-      <c r="G172" t="n">
+      <c r="G172">
         <v>3171</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" s="2" t="n">
+      <c r="B173" s="2">
         <v>44812</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>2256</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>7906</v>
       </c>
-      <c r="E173" t="n">
+      <c r="E173">
         <v>1888</v>
       </c>
-      <c r="F173" t="n">
+      <c r="F173">
         <v>21400</v>
       </c>
-      <c r="G173" t="n">
+      <c r="G173">
         <v>3192</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" s="2" t="n">
+      <c r="B174" s="2">
         <v>44813</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>2280</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>7985</v>
       </c>
-      <c r="E174" t="n">
+      <c r="E174">
         <v>1918</v>
       </c>
-      <c r="F174" t="n">
+      <c r="F174">
         <v>22200</v>
       </c>
-      <c r="G174" t="n">
+      <c r="G174">
         <v>3222.5</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" s="2" t="n">
+      <c r="B175" s="2">
         <v>44816</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>2288.5</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>8026</v>
       </c>
-      <c r="E175" t="n">
+      <c r="E175">
         <v>1929</v>
       </c>
-      <c r="F175" t="n">
+      <c r="F175">
         <v>23325</v>
       </c>
-      <c r="G175" t="n">
+      <c r="G175">
         <v>3248</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" s="2" t="n">
+      <c r="B176" s="2">
         <v>44817</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>2309.5</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>8230</v>
       </c>
-      <c r="E176" t="n">
+      <c r="E176">
         <v>1956</v>
       </c>
-      <c r="F176" t="n">
+      <c r="F176">
         <v>24655</v>
       </c>
-      <c r="G176" t="n">
+      <c r="G176">
         <v>3319.5</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" s="2" t="n">
+      <c r="B177" s="2">
         <v>44818</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>2227.5</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>7865</v>
       </c>
-      <c r="E177" t="n">
+      <c r="E177">
         <v>1930</v>
       </c>
-      <c r="F177" t="n">
+      <c r="F177">
         <v>23755</v>
       </c>
-      <c r="G177" t="n">
+      <c r="G177">
         <v>3215</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" s="2" t="n">
+      <c r="B178" s="2">
         <v>44819</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>2272</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>7806</v>
       </c>
-      <c r="E178" t="n">
+      <c r="E178">
         <v>1936</v>
       </c>
-      <c r="F178" t="n">
+      <c r="F178">
         <v>23310</v>
       </c>
-      <c r="G178" t="n">
+      <c r="G178">
         <v>3225</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" s="2" t="n">
+      <c r="B179" s="2">
         <v>44820</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>2259</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>7792</v>
       </c>
-      <c r="E179" t="n">
+      <c r="E179">
         <v>1882</v>
       </c>
-      <c r="F179" t="n">
+      <c r="F179">
         <v>23500</v>
       </c>
-      <c r="G179" t="n">
+      <c r="G179">
         <v>3124</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" s="2" t="n">
+      <c r="B180" s="2">
         <v>44823</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>2232</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>7772</v>
       </c>
-      <c r="E180" t="n">
+      <c r="E180">
         <v>1882</v>
       </c>
-      <c r="F180" t="n">
+      <c r="F180">
         <v>24610</v>
       </c>
-      <c r="G180" t="n">
+      <c r="G180">
         <v>3145</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" s="2" t="n">
+      <c r="B181" s="2">
         <v>44824</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>2245.5</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>7796</v>
       </c>
-      <c r="E181" t="n">
+      <c r="E181">
         <v>1874</v>
       </c>
-      <c r="F181" t="n">
+      <c r="F181">
         <v>24750</v>
       </c>
-      <c r="G181" t="n">
+      <c r="G181">
         <v>3201.5</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" s="2" t="n">
+      <c r="B182" s="2">
         <v>44825</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>2191</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>7761.5</v>
       </c>
-      <c r="E182" t="n">
+      <c r="E182">
         <v>1847</v>
       </c>
-      <c r="F182" t="n">
+      <c r="F182">
         <v>24860</v>
       </c>
-      <c r="G182" t="n">
+      <c r="G182">
         <v>3132</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" s="2" t="n">
+      <c r="B183" s="2">
         <v>44826</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>2195.5</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>7815</v>
       </c>
-      <c r="E183" t="n">
+      <c r="E183">
         <v>1877</v>
       </c>
-      <c r="F183" t="n">
+      <c r="F183">
         <v>24525</v>
       </c>
-      <c r="G183" t="n">
+      <c r="G183">
         <v>3131.5</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" s="2" t="n">
+      <c r="B184" s="2">
         <v>44827</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>2153</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>7446</v>
       </c>
-      <c r="E184" t="n">
+      <c r="E184">
         <v>1802</v>
       </c>
-      <c r="F184" t="n">
+      <c r="F184">
         <v>23135</v>
       </c>
-      <c r="G184" t="n">
+      <c r="G184">
         <v>3035</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" s="2" t="n">
+      <c r="B185" s="2">
         <v>44830</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>2125.5</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>7449</v>
       </c>
-      <c r="E185" t="n">
+      <c r="E185">
         <v>1776</v>
       </c>
-      <c r="F185" t="n">
+      <c r="F185">
         <v>22150</v>
       </c>
-      <c r="G185" t="n">
+      <c r="G185">
         <v>2944</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" s="2" t="n">
+      <c r="B186" s="2">
         <v>44831</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>2106</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>7475</v>
       </c>
-      <c r="E186" t="n">
+      <c r="E186">
         <v>1754</v>
       </c>
-      <c r="F186" t="n">
+      <c r="F186">
         <v>21890</v>
       </c>
-      <c r="G186" t="n">
+      <c r="G186">
         <v>2938</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" s="2" t="n">
+      <c r="B187" s="2">
         <v>44832</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>2080</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>7353</v>
       </c>
-      <c r="E187" t="n">
+      <c r="E187">
         <v>1765</v>
       </c>
-      <c r="F187" t="n">
+      <c r="F187">
         <v>21225</v>
       </c>
-      <c r="G187" t="n">
+      <c r="G187">
         <v>2830</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" s="2" t="n">
+      <c r="B188" s="2">
         <v>44833</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>2261</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>7660.5</v>
       </c>
-      <c r="E188" t="n">
+      <c r="E188">
         <v>1856</v>
       </c>
-      <c r="F188" t="n">
+      <c r="F188">
         <v>22900</v>
       </c>
-      <c r="G188" t="n">
+      <c r="G188">
         <v>3015</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" s="2" t="n">
+      <c r="B189" s="2">
         <v>44834</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>2180</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>7647</v>
       </c>
-      <c r="E189" t="n">
+      <c r="E189">
         <v>1889</v>
       </c>
-      <c r="F189" t="n">
+      <c r="F189">
         <v>22290</v>
       </c>
-      <c r="G189" t="n">
+      <c r="G189">
         <v>2986</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" s="2" t="n">
+      <c r="B190" s="2">
         <v>44837</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>2164</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>7524</v>
       </c>
-      <c r="E190" t="n">
+      <c r="E190">
         <v>1865.5</v>
       </c>
-      <c r="F190" t="n">
+      <c r="F190">
         <v>21575</v>
       </c>
-      <c r="G190" t="n">
+      <c r="G190">
         <v>2956</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" s="2" t="n">
+      <c r="B191" s="2">
         <v>44838</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>2261.5</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>7596</v>
       </c>
-      <c r="E191" t="n">
+      <c r="E191">
         <v>1877</v>
       </c>
-      <c r="F191" t="n">
+      <c r="F191">
         <v>21300</v>
       </c>
-      <c r="G191" t="n">
+      <c r="G191">
         <v>2989</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" s="2" t="n">
+      <c r="B192" s="2">
         <v>44839</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>2289</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>7661</v>
       </c>
-      <c r="E192" t="n">
+      <c r="E192">
         <v>1965.5</v>
       </c>
-      <c r="F192" t="n">
+      <c r="F192">
         <v>22275</v>
       </c>
-      <c r="G192" t="n">
+      <c r="G192">
         <v>3028</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" s="2" t="n">
+      <c r="B193" s="2">
         <v>44840</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>2355</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>7744</v>
       </c>
-      <c r="E193" t="n">
+      <c r="E193">
         <v>2049</v>
       </c>
-      <c r="F193" t="n">
+      <c r="F193">
         <v>22350</v>
       </c>
-      <c r="G193" t="n">
+      <c r="G193">
         <v>3096</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" s="2" t="n">
+      <c r="B194" s="2">
         <v>44841</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>2342</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>7575.5</v>
       </c>
-      <c r="E194" t="n">
+      <c r="E194">
         <v>2078</v>
       </c>
-      <c r="F194" t="n">
+      <c r="F194">
         <v>22360</v>
       </c>
-      <c r="G194" t="n">
+      <c r="G194">
         <v>3061.5</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" s="2" t="n">
+      <c r="B195" s="2">
         <v>44844</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>2274</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>7655</v>
       </c>
-      <c r="E195" t="n">
+      <c r="E195">
         <v>2096</v>
       </c>
-      <c r="F195" t="n">
+      <c r="F195">
         <v>22100</v>
       </c>
-      <c r="G195" t="n">
+      <c r="G195">
         <v>3011</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" s="2" t="n">
+      <c r="B196" s="2">
         <v>44845</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>2218.5</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>7587</v>
       </c>
-      <c r="E196" t="n">
+      <c r="E196">
         <v>2030</v>
       </c>
-      <c r="F196" t="n">
+      <c r="F196">
         <v>22400</v>
       </c>
-      <c r="G196" t="n">
+      <c r="G196">
         <v>2966</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" s="2" t="n">
+      <c r="B197" s="2">
         <v>44846</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>2227</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>7625.5</v>
       </c>
-      <c r="E197" t="n">
+      <c r="E197">
         <v>2080</v>
       </c>
-      <c r="F197" t="n">
+      <c r="F197">
         <v>21750</v>
       </c>
-      <c r="G197" t="n">
+      <c r="G197">
         <v>2972</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" s="2" t="n">
+      <c r="B198" s="2">
         <v>44847</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>2374</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>7663</v>
       </c>
-      <c r="E198" t="n">
+      <c r="E198">
         <v>2079</v>
       </c>
-      <c r="F198" t="n">
+      <c r="F198">
         <v>21920</v>
       </c>
-      <c r="G198" t="n">
+      <c r="G198">
         <v>2955.5</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" s="2" t="n">
+      <c r="B199" s="2">
         <v>44848</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>2309</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>7688</v>
       </c>
-      <c r="E199" t="n">
+      <c r="E199">
         <v>2060</v>
       </c>
-      <c r="F199" t="n">
+      <c r="F199">
         <v>21910</v>
       </c>
-      <c r="G199" t="n">
+      <c r="G199">
         <v>2960.5</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" s="2" t="n">
+      <c r="B200" s="2">
         <v>44851</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>2240</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>7715</v>
       </c>
-      <c r="E200" t="n">
+      <c r="E200">
         <v>2077</v>
       </c>
-      <c r="F200" t="n">
+      <c r="F200">
         <v>21460</v>
       </c>
-      <c r="G200" t="n">
+      <c r="G200">
         <v>2905</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" s="2" t="n">
+      <c r="B201" s="2">
         <v>44852</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>2200.5</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>7536</v>
       </c>
-      <c r="E201" t="n">
+      <c r="E201">
         <v>2044</v>
       </c>
-      <c r="F201" t="n">
+      <c r="F201">
         <v>21500</v>
       </c>
-      <c r="G201" t="n">
+      <c r="G201">
         <v>2868</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" s="2" t="n">
+      <c r="B202" s="2">
         <v>44853</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>2169</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>7420</v>
       </c>
-      <c r="E202" t="n">
+      <c r="E202">
         <v>2007</v>
       </c>
-      <c r="F202" t="n">
+      <c r="F202">
         <v>21620</v>
       </c>
-      <c r="G202" t="n">
+      <c r="G202">
         <v>2890</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" s="2" t="n">
+      <c r="B203" s="2">
         <v>44854</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>2214</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>7585.5</v>
       </c>
-      <c r="E203" t="n">
+      <c r="E203">
         <v>1989</v>
       </c>
-      <c r="F203" t="n">
+      <c r="F203">
         <v>21825</v>
       </c>
-      <c r="G203" t="n">
+      <c r="G203">
         <v>2944</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" s="2" t="n">
+      <c r="B204" s="2">
         <v>44855</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>2155.5</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>7545</v>
       </c>
-      <c r="E204" t="n">
+      <c r="E204">
         <v>1930</v>
       </c>
-      <c r="F204" t="n">
+      <c r="F204">
         <v>21550</v>
       </c>
-      <c r="G204" t="n">
+      <c r="G204">
         <v>2990.5</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" s="2" t="n">
+      <c r="B205" s="2">
         <v>44858</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>2160</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>7661</v>
       </c>
-      <c r="E205" t="n">
+      <c r="E205">
         <v>1937</v>
       </c>
-      <c r="F205" t="n">
+      <c r="F205">
         <v>22170</v>
       </c>
-      <c r="G205" t="n">
+      <c r="G205">
         <v>3011</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" s="2" t="n">
+      <c r="B206" s="2">
         <v>44859</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>2170.5</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>7536</v>
       </c>
-      <c r="E206" t="n">
+      <c r="E206">
         <v>1893</v>
       </c>
-      <c r="F206" t="n">
+      <c r="F206">
         <v>22075</v>
       </c>
-      <c r="G206" t="n">
+      <c r="G206">
         <v>2920</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" s="2" t="n">
+      <c r="B207" s="2">
         <v>44860</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>2265.5</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>7762.5</v>
       </c>
-      <c r="E207" t="n">
+      <c r="E207">
         <v>1900</v>
       </c>
-      <c r="F207" t="n">
+      <c r="F207">
         <v>22255</v>
       </c>
-      <c r="G207" t="n">
+      <c r="G207">
         <v>2977</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" s="2" t="n">
+      <c r="B208" s="2">
         <v>44861</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>2297</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>7777</v>
       </c>
-      <c r="E208" t="n">
+      <c r="E208">
         <v>1885</v>
       </c>
-      <c r="F208" t="n">
+      <c r="F208">
         <v>22250</v>
       </c>
-      <c r="G208" t="n">
+      <c r="G208">
         <v>2985</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" s="2" t="n">
+      <c r="B209" s="2">
         <v>44862</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>2226</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>7663.5</v>
       </c>
-      <c r="E209" t="n">
+      <c r="E209">
         <v>1942</v>
       </c>
-      <c r="F209" t="n">
+      <c r="F209">
         <v>22255</v>
       </c>
-      <c r="G209" t="n">
+      <c r="G209">
         <v>2914</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" s="2" t="n">
+      <c r="B210" s="2">
         <v>44865</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>2197</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>7525</v>
       </c>
-      <c r="E210" t="n">
+      <c r="E210">
         <v>1966</v>
       </c>
-      <c r="F210" t="n">
+      <c r="F210">
         <v>21750</v>
       </c>
-      <c r="G210" t="n">
+      <c r="G210">
         <v>2755</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" s="2" t="n">
+      <c r="B211" s="2">
         <v>44866</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>2245.5</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>7745</v>
       </c>
-      <c r="E211" t="n">
+      <c r="E211">
         <v>2009</v>
       </c>
-      <c r="F211" t="n">
+      <c r="F211">
         <v>22705</v>
       </c>
-      <c r="G211" t="n">
+      <c r="G211">
         <v>2787</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" s="2" t="n">
+      <c r="B212" s="2">
         <v>44867</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>2227</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>7705</v>
       </c>
-      <c r="E212" t="n">
+      <c r="E212">
         <v>1978</v>
       </c>
-      <c r="F212" t="n">
+      <c r="F212">
         <v>23360</v>
       </c>
-      <c r="G212" t="n">
+      <c r="G212">
         <v>2765</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" s="2" t="n">
+      <c r="B213" s="2">
         <v>44868</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>2216</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>7510</v>
       </c>
-      <c r="E213" t="n">
+      <c r="E213">
         <v>1986</v>
       </c>
-      <c r="F213" t="n">
+      <c r="F213">
         <v>23060</v>
       </c>
-      <c r="G213" t="n">
+      <c r="G213">
         <v>2682</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" s="2" t="n">
+      <c r="B214" s="2">
         <v>44869</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>2306</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>7905</v>
       </c>
-      <c r="E214" t="n">
+      <c r="E214">
         <v>2022</v>
       </c>
-      <c r="F214" t="n">
+      <c r="F214">
         <v>23735</v>
       </c>
-      <c r="G214" t="n">
+      <c r="G214">
         <v>2849</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" s="2" t="n">
+      <c r="B215" s="2">
         <v>44872</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>2292</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>7954.5</v>
       </c>
-      <c r="E215" t="n">
+      <c r="E215">
         <v>2015</v>
       </c>
-      <c r="F215" t="n">
+      <c r="F215">
         <v>22950</v>
       </c>
-      <c r="G215" t="n">
+      <c r="G215">
         <v>2885</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" s="2" t="n">
+      <c r="B216" s="2">
         <v>44873</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>2327</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>7974</v>
       </c>
-      <c r="E216" t="n">
+      <c r="E216">
         <v>2030</v>
       </c>
-      <c r="F216" t="n">
+      <c r="F216">
         <v>23410</v>
       </c>
-      <c r="G216" t="n">
+      <c r="G216">
         <v>2901.5</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" s="2" t="n">
+      <c r="B217" s="2">
         <v>44874</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>2338</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>8035</v>
       </c>
-      <c r="E217" t="n">
+      <c r="E217">
         <v>2060</v>
       </c>
-      <c r="F217" t="n">
+      <c r="F217">
         <v>24095</v>
       </c>
-      <c r="G217" t="n">
+      <c r="G217">
         <v>2890</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" s="2" t="n">
+      <c r="B218" s="2">
         <v>44875</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>2272</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>8065</v>
       </c>
-      <c r="E218" t="n">
+      <c r="E218">
         <v>2065</v>
       </c>
-      <c r="F218" t="n">
+      <c r="F218">
         <v>24420</v>
       </c>
-      <c r="G218" t="n">
+      <c r="G218">
         <v>2832</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" s="2" t="n">
+      <c r="B219" s="2">
         <v>44876</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>2410</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>8441</v>
       </c>
-      <c r="E219" t="n">
+      <c r="E219">
         <v>2156.5</v>
       </c>
-      <c r="F219" t="n">
+      <c r="F219">
         <v>26025</v>
       </c>
-      <c r="G219" t="n">
+      <c r="G219">
         <v>3006.5</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" s="2" t="n">
+      <c r="B220" s="2">
         <v>44879</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>2392</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>8346</v>
       </c>
-      <c r="E220" t="n">
+      <c r="E220">
         <v>2175</v>
       </c>
-      <c r="F220" t="n">
+      <c r="F220">
         <v>27005</v>
       </c>
-      <c r="G220" t="n">
+      <c r="G220">
         <v>3076</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" s="2" t="n">
+      <c r="B221" s="2">
         <v>44880</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>2410</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>8343</v>
       </c>
-      <c r="E221" t="n">
+      <c r="E221">
         <v>2212.5</v>
       </c>
-      <c r="F221" t="n">
+      <c r="F221">
         <v>29600</v>
       </c>
-      <c r="G221" t="n">
+      <c r="G221">
         <v>3145</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" s="2" t="n">
+      <c r="B222" s="2">
         <v>44881</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>2393</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>8315</v>
       </c>
-      <c r="E222" t="n">
+      <c r="E222">
         <v>2209</v>
       </c>
-      <c r="F222" t="n">
+      <c r="F222">
         <v>28555</v>
       </c>
-      <c r="G222" t="n">
+      <c r="G222">
         <v>3087</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" s="2" t="n">
+      <c r="B223" s="2">
         <v>44882</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>2342.5</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>8155</v>
       </c>
-      <c r="E223" t="n">
+      <c r="E223">
         <v>2147</v>
       </c>
-      <c r="F223" t="n">
+      <c r="F223">
         <v>26070</v>
       </c>
-      <c r="G223" t="n">
+      <c r="G223">
         <v>3000</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" s="2" t="n">
+      <c r="B224" s="2">
         <v>44883</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>2369</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>8047</v>
       </c>
-      <c r="E224" t="n">
+      <c r="E224">
         <v>2175</v>
       </c>
-      <c r="F224" t="n">
+      <c r="F224">
         <v>24850</v>
       </c>
-      <c r="G224" t="n">
+      <c r="G224">
         <v>3007.5</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" s="2" t="n">
+      <c r="B225" s="2">
         <v>44886</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>2344</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>7900.5</v>
       </c>
-      <c r="E225" t="n">
+      <c r="E225">
         <v>2113</v>
       </c>
-      <c r="F225" t="n">
+      <c r="F225">
         <v>24450</v>
       </c>
-      <c r="G225" t="n">
+      <c r="G225">
         <v>2932</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" s="2" t="n">
+      <c r="B226" s="2">
         <v>44887</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>2394</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>7996</v>
       </c>
-      <c r="E226" t="n">
+      <c r="E226">
         <v>2095.5</v>
       </c>
-      <c r="F226" t="n">
+      <c r="F226">
         <v>25700</v>
       </c>
-      <c r="G226" t="n">
+      <c r="G226">
         <v>2904.5</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" s="2" t="n">
+      <c r="B227" s="2">
         <v>44888</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>2364</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>7962</v>
       </c>
-      <c r="E227" t="n">
+      <c r="E227">
         <v>2082</v>
       </c>
-      <c r="F227" t="n">
+      <c r="F227">
         <v>25900</v>
       </c>
-      <c r="G227" t="n">
+      <c r="G227">
         <v>2892</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" s="2" t="n">
+      <c r="B228" s="2">
         <v>44889</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>2344</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>7990.5</v>
       </c>
-      <c r="E228" t="n">
+      <c r="E228">
         <v>2128</v>
       </c>
-      <c r="F228" t="n">
+      <c r="F228">
         <v>26160</v>
       </c>
-      <c r="G228" t="n">
+      <c r="G228">
         <v>2912</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" s="2" t="n">
+      <c r="B229" s="2">
         <v>44890</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>2346</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>8070</v>
       </c>
-      <c r="E229" t="n">
+      <c r="E229">
         <v>2135</v>
       </c>
-      <c r="F229" t="n">
+      <c r="F229">
         <v>25600</v>
       </c>
-      <c r="G229" t="n">
+      <c r="G229">
         <v>2925</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" s="2" t="n">
+      <c r="B230" s="2">
         <v>44893</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>2315.5</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>7966</v>
       </c>
-      <c r="E230" t="n">
+      <c r="E230">
         <v>2107</v>
       </c>
-      <c r="F230" t="n">
+      <c r="F230">
         <v>25250</v>
       </c>
-      <c r="G230" t="n">
+      <c r="G230">
         <v>2912</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" s="2" t="n">
+      <c r="B231" s="2">
         <v>44894</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>2341.5</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>8035.5</v>
       </c>
-      <c r="E231" t="n">
+      <c r="E231">
         <v>2122</v>
       </c>
-      <c r="F231" t="n">
+      <c r="F231">
         <v>26255</v>
       </c>
-      <c r="G231" t="n">
+      <c r="G231">
         <v>2956</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" s="2" t="n">
+      <c r="B232" s="2">
         <v>44895</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>2387</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>8198</v>
       </c>
-      <c r="E232" t="n">
+      <c r="E232">
         <v>2164</v>
       </c>
-      <c r="F232" t="n">
+      <c r="F232">
         <v>26500</v>
       </c>
-      <c r="G232" t="n">
+      <c r="G232">
         <v>2974</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" s="2" t="n">
+      <c r="B233" s="2">
         <v>44896</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>2430.5</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>8216.5</v>
       </c>
-      <c r="E233" t="n">
+      <c r="E233">
         <v>2155</v>
       </c>
-      <c r="F233" t="n">
+      <c r="F233">
         <v>26950</v>
       </c>
-      <c r="G233" t="n">
+      <c r="G233">
         <v>3056.5</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" s="2" t="n">
+      <c r="B234" s="2">
         <v>44897</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>2448.5</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>8342</v>
       </c>
-      <c r="E234" t="n">
+      <c r="E234">
         <v>2171</v>
       </c>
-      <c r="F234" t="n">
+      <c r="F234">
         <v>27145</v>
       </c>
-      <c r="G234" t="n">
+      <c r="G234">
         <v>3066.5</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" s="2" t="n">
+      <c r="B235" s="2">
         <v>44900</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>2485</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>8440</v>
       </c>
-      <c r="E235" t="n">
+      <c r="E235">
         <v>2194.5</v>
       </c>
-      <c r="F235" t="n">
+      <c r="F235">
         <v>28365</v>
       </c>
-      <c r="G235" t="n">
+      <c r="G235">
         <v>3120.5</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" s="2" t="n">
+      <c r="B236" s="2">
         <v>44901</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>2461</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>8355.5</v>
       </c>
-      <c r="E236" t="n">
+      <c r="E236">
         <v>2210</v>
       </c>
-      <c r="F236" t="n">
+      <c r="F236">
         <v>28250</v>
       </c>
-      <c r="G236" t="n">
+      <c r="G236">
         <v>3187</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" s="2" t="n">
+      <c r="B237" s="2">
         <v>44902</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>2450.5</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>8334</v>
       </c>
-      <c r="E237" t="n">
+      <c r="E237">
         <v>2206</v>
       </c>
-      <c r="F237" t="n">
+      <c r="F237">
         <v>28725</v>
       </c>
-      <c r="G237" t="n">
+      <c r="G237">
         <v>3140</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" s="2" t="n">
+      <c r="B238" s="2">
         <v>44903</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>2468.5</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>8537</v>
       </c>
-      <c r="E238" t="n">
+      <c r="E238">
         <v>2199</v>
       </c>
-      <c r="F238" t="n">
+      <c r="F238">
         <v>31075</v>
       </c>
-      <c r="G238" t="n">
+      <c r="G238">
         <v>3242</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" s="2" t="n">
+      <c r="B239" s="2">
         <v>44904</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>2453.5</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>8490.5</v>
       </c>
-      <c r="E239" t="n">
+      <c r="E239">
         <v>2207</v>
       </c>
-      <c r="F239" t="n">
+      <c r="F239">
         <v>29850</v>
       </c>
-      <c r="G239" t="n">
+      <c r="G239">
         <v>3247</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" s="2" t="n">
+      <c r="B240" s="2">
         <v>44907</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>2390</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>8371.5</v>
       </c>
-      <c r="E240" t="n">
+      <c r="E240">
         <v>2190</v>
       </c>
-      <c r="F240" t="n">
+      <c r="F240">
         <v>29310</v>
       </c>
-      <c r="G240" t="n">
+      <c r="G240">
         <v>3284</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" s="2" t="n">
+      <c r="B241" s="2">
         <v>44908</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>2388</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>8381</v>
       </c>
-      <c r="E241" t="n">
+      <c r="E241">
         <v>2201</v>
       </c>
-      <c r="F241" t="n">
+      <c r="F241">
         <v>28800</v>
       </c>
-      <c r="G241" t="n">
+      <c r="G241">
         <v>3289</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" s="2" t="n">
+      <c r="B242" s="2">
         <v>44909</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>2379.5</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>8415</v>
       </c>
-      <c r="E242" t="n">
+      <c r="E242">
         <v>2147</v>
       </c>
-      <c r="F242" t="n">
+      <c r="F242">
         <v>27850</v>
       </c>
-      <c r="G242" t="n">
+      <c r="G242">
         <v>3277</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" s="2" t="n">
+      <c r="B243" s="2">
         <v>44910</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>2396</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>8383</v>
       </c>
-      <c r="E243" t="n">
+      <c r="E243">
         <v>2133</v>
       </c>
-      <c r="F243" t="n">
+      <c r="F243">
         <v>28625</v>
       </c>
-      <c r="G243" t="n">
+      <c r="G243">
         <v>3235</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" s="2" t="n">
+      <c r="B244" s="2">
         <v>44911</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>2354</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>8231.5</v>
       </c>
-      <c r="E244" t="n">
+      <c r="E244">
         <v>2156</v>
       </c>
-      <c r="F244" t="n">
+      <c r="F244">
         <v>28850</v>
       </c>
-      <c r="G244" t="n">
+      <c r="G244">
         <v>3127</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" s="2" t="n">
+      <c r="B245" s="2">
         <v>44914</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>2327</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>8331</v>
       </c>
-      <c r="E245" t="n">
+      <c r="E245">
         <v>2179</v>
       </c>
-      <c r="F245" t="n">
+      <c r="F245">
         <v>27525</v>
       </c>
-      <c r="G245" t="n">
+      <c r="G245">
         <v>3060</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" s="2" t="n">
+      <c r="B246" s="2">
         <v>44915</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>2329.5</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>8302</v>
       </c>
-      <c r="E246" t="n">
+      <c r="E246">
         <v>2175</v>
       </c>
-      <c r="F246" t="n">
+      <c r="F246">
         <v>28400</v>
       </c>
-      <c r="G246" t="n">
+      <c r="G246">
         <v>3075</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" s="2" t="n">
+      <c r="B247" s="2">
         <v>44916</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>2357</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>8327</v>
       </c>
-      <c r="E247" t="n">
+      <c r="E247">
         <v>2217</v>
       </c>
-      <c r="F247" t="n">
+      <c r="F247">
         <v>28175</v>
       </c>
-      <c r="G247" t="n">
+      <c r="G247">
         <v>3065.5</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" s="2" t="n">
+      <c r="B248" s="2">
         <v>44917</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>2362</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>8345.5</v>
       </c>
-      <c r="E248" t="n">
+      <c r="E248">
         <v>2277</v>
       </c>
-      <c r="F248" t="n">
+      <c r="F248">
         <v>28650</v>
       </c>
-      <c r="G248" t="n">
+      <c r="G248">
         <v>3008</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" s="2" t="n">
+      <c r="B249" s="2">
         <v>44918</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>2342</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>8308.5</v>
       </c>
-      <c r="E249" t="n">
+      <c r="E249">
         <v>2280</v>
       </c>
-      <c r="F249" t="n">
+      <c r="F249">
         <v>29600</v>
       </c>
-      <c r="G249" t="n">
+      <c r="G249">
         <v>2985</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" s="2" t="n">
+      <c r="B250" s="2">
         <v>44923</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>2343</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>8451</v>
       </c>
-      <c r="E250" t="n">
+      <c r="E250">
         <v>2303</v>
       </c>
-      <c r="F250" t="n">
+      <c r="F250">
         <v>30505</v>
       </c>
-      <c r="G250" t="n">
+      <c r="G250">
         <v>3056</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" s="2" t="n">
+      <c r="B251" s="2">
         <v>44924</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>2371.5</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>8395</v>
       </c>
-      <c r="E251" t="n">
+      <c r="E251">
         <v>2314</v>
       </c>
-      <c r="F251" t="n">
+      <c r="F251">
         <v>30000</v>
       </c>
-      <c r="G251" t="n">
+      <c r="G251">
         <v>3019</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" s="2" t="n">
+      <c r="B252" s="2">
         <v>44925</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>2360.5</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>8387</v>
       </c>
-      <c r="E252" t="n">
+      <c r="E252">
         <v>2335</v>
       </c>
-      <c r="F252" t="n">
+      <c r="F252">
         <v>30425</v>
       </c>
-      <c r="G252" t="n">
+      <c r="G252">
         <v>3025</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" s="2" t="n">
+      <c r="B253" s="2">
         <v>44929</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>2337.5</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>8390</v>
       </c>
-      <c r="E253" t="n">
+      <c r="E253">
         <v>2322</v>
       </c>
-      <c r="F253" t="n">
+      <c r="F253">
         <v>31200</v>
       </c>
-      <c r="G253" t="n">
+      <c r="G253">
         <v>3004</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" s="2">
+        <v>44930</v>
+      </c>
+      <c r="C254">
+        <v>2250</v>
+      </c>
+      <c r="D254">
+        <v>8209</v>
+      </c>
+      <c r="E254">
+        <v>2331</v>
+      </c>
+      <c r="F254">
+        <v>29750</v>
+      </c>
+      <c r="G254">
+        <v>2977</v>
       </c>
     </row>
   </sheetData>

--- a/code/LME/parser_beta/data/LME_db.xlsx
+++ b/code/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G255"/>
+  <dimension ref="A1:G256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6311,6 +6311,29 @@
         <v>3040</v>
       </c>
     </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" s="2" t="n">
+        <v>44932</v>
+      </c>
+      <c r="C256" t="n">
+        <v>2242.5</v>
+      </c>
+      <c r="D256" t="n">
+        <v>8362.5</v>
+      </c>
+      <c r="E256" t="n">
+        <v>2235</v>
+      </c>
+      <c r="F256" t="n">
+        <v>27465</v>
+      </c>
+      <c r="G256" t="n">
+        <v>2994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/code/LME/parser_beta/data/LME_db.xlsx
+++ b/code/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G256"/>
+  <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6334,6 +6334,29 @@
         <v>2994</v>
       </c>
     </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2336.5</v>
+      </c>
+      <c r="D257" t="n">
+        <v>8722</v>
+      </c>
+      <c r="E257" t="n">
+        <v>2318</v>
+      </c>
+      <c r="F257" t="n">
+        <v>27485</v>
+      </c>
+      <c r="G257" t="n">
+        <v>3154</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/code/LME/parser_beta/data/LME_db.xlsx
+++ b/code/LME/parser_beta/data/LME_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G257"/>
+  <dimension ref="A1:G258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6357,6 +6357,29 @@
         <v>3154</v>
       </c>
     </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="C258" t="n">
+        <v>2397</v>
+      </c>
+      <c r="D258" t="n">
+        <v>8766.5</v>
+      </c>
+      <c r="E258" t="n">
+        <v>2208</v>
+      </c>
+      <c r="F258" t="n">
+        <v>27700</v>
+      </c>
+      <c r="G258" t="n">
+        <v>3193</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
